--- a/data/hawkmoth-radii-calculations.xlsx
+++ b/data/hawkmoth-radii-calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Clemson_Post-doc\wetability\wet-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Clemson_Post-doc\wetability\wet-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F2B1F4-6E27-4AC6-AF35-159F00D0EF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6439922-3341-4359-9966-2796D91F9A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DB7D5DF2-47BC-4934-9D96-C4AA711724DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{DB7D5DF2-47BC-4934-9D96-C4AA711724DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1FC5F5-D5D8-4590-8376-C7D3F8C226EA}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86:I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>0.15362500000000001</v>
       </c>
       <c r="E2">
-        <f>D2/2</f>
+        <f t="shared" ref="E2:E33" si="0">D2/2</f>
         <v>7.6812500000000006E-2</v>
       </c>
       <c r="F2">
@@ -543,7 +543,7 @@
         <v>0.10625</v>
       </c>
       <c r="E3">
-        <f>D3/2</f>
+        <f t="shared" si="0"/>
         <v>5.3124999999999999E-2</v>
       </c>
     </row>
@@ -561,7 +561,7 @@
         <v>9.0499999999999997E-2</v>
       </c>
       <c r="E4">
-        <f>D4/2</f>
+        <f t="shared" si="0"/>
         <v>4.5249999999999999E-2</v>
       </c>
     </row>
@@ -579,7 +579,7 @@
         <v>5.5607700000000003E-2</v>
       </c>
       <c r="E5">
-        <f>D5/2</f>
+        <f t="shared" si="0"/>
         <v>2.7803850000000001E-2</v>
       </c>
     </row>
@@ -597,7 +597,7 @@
         <v>5.4500000000000007E-2</v>
       </c>
       <c r="E6">
-        <f>D6/2</f>
+        <f t="shared" si="0"/>
         <v>2.7250000000000003E-2</v>
       </c>
     </row>
@@ -615,7 +615,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="E7">
-        <f>D7/2</f>
+        <f t="shared" si="0"/>
         <v>1.6250000000000001E-2</v>
       </c>
     </row>
@@ -633,7 +633,7 @@
         <v>2.6500000000000003E-2</v>
       </c>
       <c r="E8">
-        <f>D8/2</f>
+        <f t="shared" si="0"/>
         <v>1.3250000000000001E-2</v>
       </c>
     </row>
@@ -651,7 +651,7 @@
         <v>0.12146</v>
       </c>
       <c r="E9">
-        <f>D9/2</f>
+        <f t="shared" si="0"/>
         <v>6.0729999999999999E-2</v>
       </c>
       <c r="F9">
@@ -685,7 +685,7 @@
         <v>0.11290900000000001</v>
       </c>
       <c r="E10">
-        <f>D10/2</f>
+        <f t="shared" si="0"/>
         <v>5.6454500000000005E-2</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>0.10715949999999999</v>
       </c>
       <c r="E11">
-        <f>D11/2</f>
+        <f t="shared" si="0"/>
         <v>5.3579749999999995E-2</v>
       </c>
     </row>
@@ -721,7 +721,7 @@
         <v>0.1066115</v>
       </c>
       <c r="E12">
-        <f>D12/2</f>
+        <f t="shared" si="0"/>
         <v>5.3305749999999999E-2</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
         <v>0.10563600000000001</v>
       </c>
       <c r="E13">
-        <f>D13/2</f>
+        <f t="shared" si="0"/>
         <v>5.2818000000000004E-2</v>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>9.9282200000000001E-2</v>
       </c>
       <c r="E14">
-        <f>D14/2</f>
+        <f t="shared" si="0"/>
         <v>4.9641100000000001E-2</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
         <v>8.2079799999999994E-2</v>
       </c>
       <c r="E15">
-        <f>D15/2</f>
+        <f t="shared" si="0"/>
         <v>4.1039899999999997E-2</v>
       </c>
     </row>
@@ -793,7 +793,7 @@
         <v>0.13864300000000002</v>
       </c>
       <c r="E16">
-        <f>D16/2</f>
+        <f t="shared" si="0"/>
         <v>6.9321500000000008E-2</v>
       </c>
       <c r="F16">
@@ -827,7 +827,7 @@
         <v>0.13615650000000001</v>
       </c>
       <c r="E17">
-        <f>D17/2</f>
+        <f t="shared" si="0"/>
         <v>6.8078250000000007E-2</v>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>0.12884300000000001</v>
       </c>
       <c r="E18">
-        <f>D18/2</f>
+        <f t="shared" si="0"/>
         <v>6.4421500000000007E-2</v>
       </c>
     </row>
@@ -863,7 +863,7 @@
         <v>0.128471</v>
       </c>
       <c r="E19">
-        <f>D19/2</f>
+        <f t="shared" si="0"/>
         <v>6.4235500000000001E-2</v>
       </c>
     </row>
@@ -881,7 +881,7 @@
         <v>0.12553900000000001</v>
       </c>
       <c r="E20">
-        <f>D20/2</f>
+        <f t="shared" si="0"/>
         <v>6.2769500000000006E-2</v>
       </c>
     </row>
@@ -899,7 +899,7 @@
         <v>0.124529</v>
       </c>
       <c r="E21">
-        <f>D21/2</f>
+        <f t="shared" si="0"/>
         <v>6.22645E-2</v>
       </c>
     </row>
@@ -917,7 +917,7 @@
         <v>9.6581475E-2</v>
       </c>
       <c r="E22">
-        <f>D22/2</f>
+        <f t="shared" si="0"/>
         <v>4.82907375E-2</v>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>0.21016133333333331</v>
       </c>
       <c r="E23">
-        <f>D23/2</f>
+        <f t="shared" si="0"/>
         <v>0.10508066666666666</v>
       </c>
       <c r="F23">
@@ -969,7 +969,7 @@
         <v>0.18996350000000001</v>
       </c>
       <c r="E24">
-        <f>D24/2</f>
+        <f t="shared" si="0"/>
         <v>9.4981750000000004E-2</v>
       </c>
     </row>
@@ -987,7 +987,7 @@
         <v>0.18638199999999999</v>
       </c>
       <c r="E25">
-        <f>D25/2</f>
+        <f t="shared" si="0"/>
         <v>9.3190999999999996E-2</v>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>0.18268200000000001</v>
       </c>
       <c r="E26">
-        <f>D26/2</f>
+        <f t="shared" si="0"/>
         <v>9.1341000000000006E-2</v>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <v>0.172981</v>
       </c>
       <c r="E27">
-        <f>D27/2</f>
+        <f t="shared" si="0"/>
         <v>8.6490499999999998E-2</v>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
         <v>0.10713729999999999</v>
       </c>
       <c r="E28">
-        <f>D28/2</f>
+        <f t="shared" si="0"/>
         <v>5.3568649999999995E-2</v>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
         <v>8.3938250000000006E-2</v>
       </c>
       <c r="E29">
-        <f>D29/2</f>
+        <f t="shared" si="0"/>
         <v>4.1969125000000003E-2</v>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>0.167212</v>
       </c>
       <c r="E30">
-        <f>D30/2</f>
+        <f t="shared" si="0"/>
         <v>8.3606E-2</v>
       </c>
       <c r="F30">
@@ -1111,7 +1111,7 @@
         <v>0.15040200000000001</v>
       </c>
       <c r="E31">
-        <f>D31/2</f>
+        <f t="shared" si="0"/>
         <v>7.5201000000000004E-2</v>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>0.133435</v>
       </c>
       <c r="E32">
-        <f>D32/2</f>
+        <f t="shared" si="0"/>
         <v>6.6717499999999999E-2</v>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
         <v>0.119781</v>
       </c>
       <c r="E33">
-        <f>D33/2</f>
+        <f t="shared" si="0"/>
         <v>5.9890499999999999E-2</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>7.9895833333333333E-2</v>
       </c>
       <c r="E34">
-        <f>D34/2</f>
+        <f t="shared" ref="E34:E65" si="1">D34/2</f>
         <v>3.9947916666666666E-2</v>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         <v>5.0626200000000003E-2</v>
       </c>
       <c r="E35">
-        <f>D35/2</f>
+        <f t="shared" si="1"/>
         <v>2.5313100000000002E-2</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
         <v>4.8929200000000006E-2</v>
       </c>
       <c r="E36">
-        <f>D36/2</f>
+        <f t="shared" si="1"/>
         <v>2.4464600000000003E-2</v>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
         <v>0.150475</v>
       </c>
       <c r="E37">
-        <f>D37/2</f>
+        <f t="shared" si="1"/>
         <v>7.5237499999999999E-2</v>
       </c>
       <c r="F37">
@@ -1253,7 +1253,7 @@
         <v>0.14138000000000001</v>
       </c>
       <c r="E38">
-        <f>D38/2</f>
+        <f t="shared" si="1"/>
         <v>7.0690000000000003E-2</v>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
         <v>0.145542</v>
       </c>
       <c r="E39">
-        <f>D39/2</f>
+        <f t="shared" si="1"/>
         <v>7.2771000000000002E-2</v>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>0.13589899999999999</v>
       </c>
       <c r="E40">
-        <f>D40/2</f>
+        <f t="shared" si="1"/>
         <v>6.7949499999999996E-2</v>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
         <v>0.14180000000000001</v>
       </c>
       <c r="E41">
-        <f>D41/2</f>
+        <f t="shared" si="1"/>
         <v>7.0900000000000005E-2</v>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>0.13156399999999999</v>
       </c>
       <c r="E42">
-        <f>D42/2</f>
+        <f t="shared" si="1"/>
         <v>6.5781999999999993E-2</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
         <v>0.1043129</v>
       </c>
       <c r="E43">
-        <f>D43/2</f>
+        <f t="shared" si="1"/>
         <v>5.215645E-2</v>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
         <v>0.15401500000000001</v>
       </c>
       <c r="E44">
-        <f>D44/2</f>
+        <f t="shared" si="1"/>
         <v>7.7007500000000007E-2</v>
       </c>
       <c r="F44">
@@ -1395,7 +1395,7 @@
         <v>0.15323100000000001</v>
       </c>
       <c r="E45">
-        <f>D45/2</f>
+        <f t="shared" si="1"/>
         <v>7.6615500000000003E-2</v>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
         <v>0.14790400000000001</v>
       </c>
       <c r="E46">
-        <f>D46/2</f>
+        <f t="shared" si="1"/>
         <v>7.3952000000000004E-2</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
         <v>0.13716800000000001</v>
       </c>
       <c r="E47">
-        <f>D47/2</f>
+        <f t="shared" si="1"/>
         <v>6.8584000000000006E-2</v>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
         <v>0.1079594</v>
       </c>
       <c r="E48">
-        <f>D48/2</f>
+        <f t="shared" si="1"/>
         <v>5.3979699999999999E-2</v>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
         <v>8.2875900000000002E-2</v>
       </c>
       <c r="E49">
-        <f>D49/2</f>
+        <f t="shared" si="1"/>
         <v>4.1437950000000001E-2</v>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
         <v>4.80755E-2</v>
       </c>
       <c r="E50">
-        <f>D50/2</f>
+        <f t="shared" si="1"/>
         <v>2.403775E-2</v>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
         <v>0.15153899999999998</v>
       </c>
       <c r="E51">
-        <f>D51/2</f>
+        <f t="shared" si="1"/>
         <v>7.576949999999999E-2</v>
       </c>
       <c r="F51">
@@ -1537,7 +1537,7 @@
         <v>0.14675199999999999</v>
       </c>
       <c r="E52">
-        <f>D52/2</f>
+        <f t="shared" si="1"/>
         <v>7.3375999999999997E-2</v>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
         <v>0.1373335</v>
       </c>
       <c r="E53">
-        <f>D53/2</f>
+        <f t="shared" si="1"/>
         <v>6.8666749999999999E-2</v>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
         <v>0.115762</v>
       </c>
       <c r="E54">
-        <f>D54/2</f>
+        <f t="shared" si="1"/>
         <v>5.7881000000000002E-2</v>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
         <v>9.8337599999999997E-2</v>
       </c>
       <c r="E55">
-        <f>D55/2</f>
+        <f t="shared" si="1"/>
         <v>4.9168799999999999E-2</v>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>9.1685600000000006E-2</v>
       </c>
       <c r="E56">
-        <f>D56/2</f>
+        <f t="shared" si="1"/>
         <v>4.5842800000000003E-2</v>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
         <v>8.9313799999999999E-2</v>
       </c>
       <c r="E57">
-        <f>D57/2</f>
+        <f t="shared" si="1"/>
         <v>4.4656899999999999E-2</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
         <v>0.13721800000000001</v>
       </c>
       <c r="E58">
-        <f>D58/2</f>
+        <f t="shared" si="1"/>
         <v>6.8609000000000003E-2</v>
       </c>
       <c r="F58">
@@ -1679,7 +1679,7 @@
         <v>0.12347933333333333</v>
       </c>
       <c r="E59">
-        <f>D59/2</f>
+        <f t="shared" si="1"/>
         <v>6.1739666666666665E-2</v>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         <v>9.1577850000000002E-2</v>
       </c>
       <c r="E60">
-        <f>D60/2</f>
+        <f t="shared" si="1"/>
         <v>4.5788925000000001E-2</v>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
         <v>8.6358500000000005E-2</v>
       </c>
       <c r="E61">
-        <f>D61/2</f>
+        <f t="shared" si="1"/>
         <v>4.3179250000000002E-2</v>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
         <v>8.1337549999999995E-2</v>
       </c>
       <c r="E62">
-        <f>D62/2</f>
+        <f t="shared" si="1"/>
         <v>4.0668774999999997E-2</v>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
         <v>8.0249299999999996E-2</v>
       </c>
       <c r="E63">
-        <f>D63/2</f>
+        <f t="shared" si="1"/>
         <v>4.0124649999999998E-2</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>7.1589600000000003E-2</v>
       </c>
       <c r="E64">
-        <f>D64/2</f>
+        <f t="shared" si="1"/>
         <v>3.5794800000000002E-2</v>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
         <v>0.14851500000000001</v>
       </c>
       <c r="E65">
-        <f>D65/2</f>
+        <f t="shared" si="1"/>
         <v>7.4257500000000004E-2</v>
       </c>
       <c r="F65">
@@ -1821,7 +1821,7 @@
         <v>0.14194599999999999</v>
       </c>
       <c r="E66">
-        <f>D66/2</f>
+        <f t="shared" ref="E66:E97" si="2">D66/2</f>
         <v>7.0972999999999994E-2</v>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
         <v>0.121639</v>
       </c>
       <c r="E67">
-        <f>D67/2</f>
+        <f t="shared" si="2"/>
         <v>6.0819499999999999E-2</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
         <v>0.108455</v>
       </c>
       <c r="E68">
-        <f>D68/2</f>
+        <f t="shared" si="2"/>
         <v>5.4227499999999998E-2</v>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
         <v>0.100411</v>
       </c>
       <c r="E69">
-        <f>D69/2</f>
+        <f t="shared" si="2"/>
         <v>5.02055E-2</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
         <v>9.2628000000000002E-2</v>
       </c>
       <c r="E70">
-        <f>D70/2</f>
+        <f t="shared" si="2"/>
         <v>4.6314000000000001E-2</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
         <v>8.9723300000000006E-2</v>
       </c>
       <c r="E71">
-        <f>D71/2</f>
+        <f t="shared" si="2"/>
         <v>4.4861650000000003E-2</v>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>0.25159874999999998</v>
       </c>
       <c r="E72">
-        <f>D72/2</f>
+        <f t="shared" si="2"/>
         <v>0.12579937499999999</v>
       </c>
       <c r="F72">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="G72">
         <f>_xlfn.STDEV.P(C74:C78)</f>
-        <v>1.6188686917256286E-2</v>
+        <v>1.6188686917256216E-2</v>
       </c>
       <c r="H72">
         <f>AVERAGE(E74:E78)</f>
@@ -1957,13 +1957,13 @@
         <v>0.25</v>
       </c>
       <c r="C73">
-        <v>0.16191666666666668</v>
+        <v>0.15402083333333333</v>
       </c>
       <c r="D73">
         <v>0.240479</v>
       </c>
       <c r="E73">
-        <f>D73/2</f>
+        <f t="shared" si="2"/>
         <v>0.1202395</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>0.23265649999999999</v>
       </c>
       <c r="E74">
-        <f>D74/2</f>
+        <f t="shared" si="2"/>
         <v>0.11632824999999999</v>
       </c>
     </row>
@@ -1996,11 +1996,11 @@
         <v>0.12091666666666667</v>
       </c>
       <c r="D75">
-        <v>0.23214533333333334</v>
+        <v>0.21871200000000002</v>
       </c>
       <c r="E75">
-        <f>D75/2</f>
-        <v>0.11607266666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.10935600000000001</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2014,11 +2014,11 @@
         <v>0.12158333333333333</v>
       </c>
       <c r="D76">
-        <v>0.21871200000000002</v>
+        <v>0.23214533333333334</v>
       </c>
       <c r="E76">
-        <f>D76/2</f>
-        <v>0.10935600000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.11607266666666667</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2029,13 +2029,13 @@
         <v>0.85</v>
       </c>
       <c r="C77">
-        <v>0.10047222222222223</v>
+        <v>8.8062499999999988E-2</v>
       </c>
       <c r="D77">
         <v>0.21834049999999999</v>
       </c>
       <c r="E77">
-        <f>D77/2</f>
+        <f t="shared" si="2"/>
         <v>0.10917025</v>
       </c>
     </row>
@@ -2047,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>8.8062499999999988E-2</v>
+        <v>0.10047222222222223</v>
       </c>
       <c r="D78">
         <v>0.16298466666666667</v>
       </c>
       <c r="E78">
-        <f>D78/2</f>
+        <f t="shared" si="2"/>
         <v>8.1492333333333333E-2</v>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
         <v>0.16912125</v>
       </c>
       <c r="E79">
-        <f>D79/2</f>
+        <f t="shared" si="2"/>
         <v>8.4560625E-2</v>
       </c>
       <c r="F79">
@@ -2105,7 +2105,7 @@
         <v>0.13787749999999999</v>
       </c>
       <c r="E80">
-        <f>D80/2</f>
+        <f t="shared" si="2"/>
         <v>6.8938749999999993E-2</v>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>0.13617950000000001</v>
       </c>
       <c r="E81">
-        <f>D81/2</f>
+        <f t="shared" si="2"/>
         <v>6.8089750000000004E-2</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
         <v>0.130965</v>
       </c>
       <c r="E82">
-        <f>D82/2</f>
+        <f t="shared" si="2"/>
         <v>6.5482499999999999E-2</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
         <v>0.12500700000000001</v>
       </c>
       <c r="E83">
-        <f>D83/2</f>
+        <f t="shared" si="2"/>
         <v>6.2503500000000004E-2</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
         <v>0.115372</v>
       </c>
       <c r="E84">
-        <f>D84/2</f>
+        <f t="shared" si="2"/>
         <v>5.7686000000000001E-2</v>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
         <v>0.106833</v>
       </c>
       <c r="E85">
-        <f>D85/2</f>
+        <f t="shared" si="2"/>
         <v>5.3416499999999999E-2</v>
       </c>
     </row>
@@ -2207,30 +2207,30 @@
         <v>0.1</v>
       </c>
       <c r="C86">
-        <v>0.17778125</v>
+        <v>0.24597916666666669</v>
       </c>
       <c r="D86">
-        <v>0.25159874999999998</v>
+        <v>0.22288550000000001</v>
       </c>
       <c r="E86">
-        <f>D86/2</f>
-        <v>0.12579937499999999</v>
+        <f t="shared" si="2"/>
+        <v>0.11144275000000001</v>
       </c>
       <c r="F86">
         <f>AVERAGE(C88:C92)</f>
-        <v>0.11278402777777778</v>
+        <v>0.13166527777777776</v>
       </c>
       <c r="G86">
         <f>_xlfn.STDEV.P(C88:C92)</f>
-        <v>1.6188686917256011E-2</v>
+        <v>1.3496228897156843E-2</v>
       </c>
       <c r="H86">
         <f>AVERAGE(E88:E92)</f>
-        <v>0.10648390000000001</v>
+        <v>9.3205266666666661E-2</v>
       </c>
       <c r="I86">
         <f>_xlfn.STDEV.P(E88:E92)</f>
-        <v>1.2875554452505801E-2</v>
+        <v>6.9740851079390879E-3</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2241,14 +2241,14 @@
         <v>0.25</v>
       </c>
       <c r="C87">
-        <v>0.16191666666666668</v>
+        <v>0.18454166666666666</v>
       </c>
       <c r="D87">
-        <v>0.240479</v>
+        <v>0.21437299999999998</v>
       </c>
       <c r="E87">
-        <f>D87/2</f>
-        <v>0.1202395</v>
+        <f t="shared" si="2"/>
+        <v>0.10718649999999999</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2259,14 +2259,14 @@
         <v>0.4</v>
       </c>
       <c r="C88">
-        <v>0.13288541666666667</v>
+        <v>0.14569444444444438</v>
       </c>
       <c r="D88">
-        <v>0.23265649999999999</v>
+        <v>0.20825199999999999</v>
       </c>
       <c r="E88">
-        <f>D88/2</f>
-        <v>0.11632824999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.104126</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2277,14 +2277,14 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="C89">
-        <v>0.12158333333333333</v>
+        <v>0.13672916666666668</v>
       </c>
       <c r="D89">
-        <v>0.23214533333333334</v>
+        <v>0.19321099999999999</v>
       </c>
       <c r="E89">
-        <f>D89/2</f>
-        <v>0.11607266666666667</v>
+        <f t="shared" si="2"/>
+        <v>9.6605499999999997E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2295,14 +2295,14 @@
         <v>0.7</v>
       </c>
       <c r="C90">
-        <v>0.12091666666666667</v>
+        <v>0.13966666666666666</v>
       </c>
       <c r="D90">
-        <v>0.21871200000000002</v>
+        <v>0.18458350000000001</v>
       </c>
       <c r="E90">
-        <f>D90/2</f>
-        <v>0.10935600000000001</v>
+        <f t="shared" si="2"/>
+        <v>9.2291750000000006E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -2313,14 +2313,14 @@
         <v>0.85</v>
       </c>
       <c r="C91">
-        <v>0.10047222222222223</v>
+        <v>0.12945833333333334</v>
       </c>
       <c r="D91">
-        <v>0.21834049999999999</v>
+        <v>0.17958350000000001</v>
       </c>
       <c r="E91">
-        <f>D91/2</f>
-        <v>0.10917025</v>
+        <f t="shared" si="2"/>
+        <v>8.9791750000000004E-2</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -2331,14 +2331,14 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>8.8062499999999988E-2</v>
+        <v>0.10677777777777779</v>
       </c>
       <c r="D92">
-        <v>0.16298466666666667</v>
+        <v>0.16642266666666666</v>
       </c>
       <c r="E92">
-        <f>D92/2</f>
-        <v>8.1492333333333333E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.3211333333333332E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/hawkmoth-radii-calculations.xlsx
+++ b/data/hawkmoth-radii-calculations.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Clemson_Post-doc\wetability\wet-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6439922-3341-4359-9966-2796D91F9A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05A2C51-6E65-4767-85B4-E74B9F9274BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{DB7D5DF2-47BC-4934-9D96-C4AA711724DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{DB7D5DF2-47BC-4934-9D96-C4AA711724DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Radius of curvature" sheetId="1" r:id="rId1"/>
+    <sheet name="Tapering" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="28">
   <si>
     <t>species</t>
   </si>
@@ -86,22 +87,40 @@
     <t>Enyo_lugubris3</t>
   </si>
   <si>
-    <t>radius.galea</t>
-  </si>
-  <si>
-    <t>diam.food</t>
-  </si>
-  <si>
     <t>avg.radius.galea</t>
   </si>
   <si>
-    <t>sd.galea</t>
+    <t>avg.diam.food</t>
   </si>
   <si>
-    <t>sd.food</t>
+    <t>avg.radius.food</t>
   </si>
   <si>
-    <t>avg.food</t>
+    <t>curv.food</t>
+  </si>
+  <si>
+    <t>avg.curv.food</t>
+  </si>
+  <si>
+    <t>diameter.proboscis</t>
+  </si>
+  <si>
+    <t>drinking.region</t>
+  </si>
+  <si>
+    <t>tapering</t>
+  </si>
+  <si>
+    <t>tapering.angle</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>radians</t>
+  </si>
+  <si>
+    <t>degrees</t>
   </si>
 </sst>
 </file>
@@ -444,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1FC5F5-D5D8-4590-8376-C7D3F8C226EA}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86:I86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +485,7 @@
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,22 +499,25 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -506,30 +528,34 @@
         <v>0.15362500000000001</v>
       </c>
       <c r="D2">
-        <v>0.15362500000000001</v>
+        <v>0.109351</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">D2/2</f>
-        <v>7.6812500000000006E-2</v>
+        <f>AVERAGE(C3:C7)</f>
+        <v>5.8966666666666667E-2</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(C4:C8)</f>
-        <v>4.7700000000000006E-2</v>
+        <f>AVERAGE(D3:D7)</f>
+        <v>8.4470039999999996E-2</v>
       </c>
       <c r="G2">
-        <f>_xlfn.STDEV.P(C4:C8)</f>
-        <v>2.3378622713923929E-2</v>
+        <f>D2/2</f>
+        <v>5.4675500000000002E-2</v>
       </c>
       <c r="H2">
-        <f>AVERAGE(E4:E8)</f>
-        <v>2.5960770000000001E-2</v>
+        <f>AVERAGE(G3:G7)</f>
+        <v>4.2235019999999998E-2</v>
       </c>
       <c r="I2">
-        <f>_xlfn.STDEV.P(E4:E8)</f>
-        <v>1.1251632591388686E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I2:I36" si="0">C2/G2</f>
+        <v>2.8097593986337577</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(I3:I7)</f>
+        <v>1.296315974689678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -540,14 +566,34 @@
         <v>0.10625</v>
       </c>
       <c r="D3">
-        <v>0.10625</v>
+        <v>0.102691</v>
       </c>
       <c r="E3">
+        <f>_xlfn.STDEV.P(C3:C7)</f>
+        <v>3.4552319426889092E-2</v>
+      </c>
+      <c r="F3">
+        <f>AVEDEV(D3:D7)</f>
+        <v>1.2838752000000004E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G59" si="1">D3/2</f>
+        <v>5.1345500000000002E-2</v>
+      </c>
+      <c r="H3">
+        <f>AVEDEV(G3:G7)</f>
+        <v>6.4193760000000018E-3</v>
+      </c>
+      <c r="I3">
         <f t="shared" si="0"/>
-        <v>5.3124999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.0693147403375174</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.STDEV.P(I3:I7)</f>
+        <v>0.59263470254740303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -558,14 +604,18 @@
         <v>9.0499999999999997E-2</v>
       </c>
       <c r="D4">
-        <v>9.0499999999999997E-2</v>
-      </c>
-      <c r="E4">
+        <v>9.7512600000000005E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.8756300000000002E-2</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="0"/>
-        <v>4.5249999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.8561703820839561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -573,17 +623,21 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="C5">
-        <v>5.4500000000000007E-2</v>
+        <v>5.3749999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>5.5607700000000003E-2</v>
-      </c>
-      <c r="E5">
+        <v>8.5303400000000001E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.2651700000000001E-2</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>2.7803850000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.2602076822260309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -591,17 +645,21 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3.2500000000000001E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D6">
-        <v>5.4500000000000007E-2</v>
-      </c>
-      <c r="E6">
+        <v>6.8421599999999999E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3.42108E-2</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>2.7250000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.60896948721846123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -609,17 +667,21 @@
         <v>0.85</v>
       </c>
       <c r="C7">
-        <v>2.6500000000000003E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="D7">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="E7">
+        <v>6.8421599999999999E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3.42108E-2</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>1.6250000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.68691758158242422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -627,17 +689,21 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3.4500000000000003E-2</v>
+        <v>1.7250000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>2.6500000000000003E-2</v>
-      </c>
-      <c r="E8">
+        <v>5.5607700000000003E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.7803850000000001E-2</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>1.3250000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.62041767596933517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -648,30 +714,34 @@
         <v>0.10999999999999999</v>
       </c>
       <c r="D9">
-        <v>0.12146</v>
+        <v>0.11172700000000001</v>
       </c>
       <c r="E9">
+        <f>AVERAGE(C10:C14)</f>
+        <v>7.4649999999999994E-2</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(D10:D14)</f>
+        <v>0.1096466</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>5.5863500000000003E-2</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGE(G10:G14)</f>
+        <v>5.4823299999999998E-2</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v>6.0729999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <f>AVERAGE(C11:C15)</f>
-        <v>7.1387500000000007E-2</v>
-      </c>
-      <c r="G9">
-        <f>_xlfn.STDEV.P(C11:C15)</f>
-        <v>1.1074782102195521E-2</v>
-      </c>
-      <c r="H9">
-        <f>AVERAGE(E11:E15)</f>
-        <v>5.0076900000000001E-2</v>
-      </c>
-      <c r="I9">
-        <f>_xlfn.STDEV.P(E11:E15)</f>
-        <v>4.7342655247672796E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.969085359850349</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE(I10:I14)</f>
+        <v>1.3591220008960472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -682,14 +752,30 @@
         <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.11290900000000001</v>
+        <v>0.114091</v>
       </c>
       <c r="E10">
+        <f>_xlfn.STDEV.P(C10:C14)</f>
+        <v>1.3284960429414542E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>5.7045499999999999E-2</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.STDEV.S(G10:G14)</f>
+        <v>1.6807107257794259E-3</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>5.6454500000000005E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.7529866510066527</v>
+      </c>
+      <c r="J10">
+        <f>_xlfn.STDEV.P(I10:I14)</f>
+        <v>0.21752059658032213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -697,17 +783,21 @@
         <v>0.4</v>
       </c>
       <c r="C11">
-        <v>9.0812500000000004E-2</v>
+        <v>7.5458333333333322E-2</v>
       </c>
       <c r="D11">
-        <v>0.10715949999999999</v>
-      </c>
-      <c r="E11">
+        <v>0.1066115</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>5.3305749999999999E-2</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>5.3579749999999995E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.4155758681443056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -718,14 +808,18 @@
         <v>6.3312499999999994E-2</v>
       </c>
       <c r="D12">
-        <v>0.1066115</v>
-      </c>
-      <c r="E12">
+        <v>0.112361</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>5.6180500000000001E-2</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
-        <v>5.3305749999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.1269479623712853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -733,17 +827,21 @@
         <v>0.7</v>
       </c>
       <c r="C13">
-        <v>7.5458333333333322E-2</v>
+        <v>6.6604166666666659E-2</v>
       </c>
       <c r="D13">
-        <v>0.10563600000000001</v>
-      </c>
-      <c r="E13">
+        <v>0.10800999999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5.4004999999999997E-2</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
-        <v>5.2818000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.2332962997253341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -754,14 +852,18 @@
         <v>6.7874999999999991E-2</v>
       </c>
       <c r="D14">
-        <v>9.9282200000000001E-2</v>
-      </c>
-      <c r="E14">
+        <v>0.10715949999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>5.3579749999999995E-2</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="0"/>
-        <v>4.9641100000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.2668032232326578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -772,14 +874,18 @@
         <v>5.9479166666666666E-2</v>
       </c>
       <c r="D15">
-        <v>8.2079799999999994E-2</v>
-      </c>
-      <c r="E15">
+        <v>9.0680999999999998E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>4.5340499999999999E-2</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
-        <v>4.1039899999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3118330558036781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -787,33 +893,37 @@
         <v>0.1</v>
       </c>
       <c r="C16">
-        <v>0.18812500000000001</v>
+        <v>0.15159166666666665</v>
       </c>
       <c r="D16">
-        <v>0.13864300000000002</v>
+        <v>9.7612379999999999E-2</v>
       </c>
       <c r="E16">
+        <f>AVERAGE(C17:C21)</f>
+        <v>9.2858333333333334E-2</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(D17:D21)</f>
+        <v>0.13420399999999999</v>
+      </c>
+      <c r="G16">
+        <f>D16/2</f>
+        <v>4.8806189999999999E-2</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(G17:G21)</f>
+        <v>6.7101999999999995E-2</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
-        <v>6.9321500000000008E-2</v>
-      </c>
-      <c r="F16">
-        <f>AVERAGE(C18:C22)</f>
-        <v>0.11340083333333335</v>
-      </c>
-      <c r="G16">
-        <f>_xlfn.STDEV.P(C18:C22)</f>
-        <v>2.7264283896498789E-2</v>
-      </c>
-      <c r="H16">
-        <f>AVERAGE(E18:E22)</f>
-        <v>6.0396347500000003E-2</v>
-      </c>
-      <c r="I16">
-        <f>_xlfn.STDEV.P(E18:E22)</f>
-        <v>6.1091502615359715E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.1059926346774183</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(I16:I21)</f>
+        <v>1.6684999347968088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -821,17 +931,33 @@
         <v>0.25</v>
       </c>
       <c r="C17">
-        <v>0.170875</v>
+        <v>0.10856249999999999</v>
       </c>
       <c r="D17">
-        <v>0.13615650000000001</v>
+        <v>0.14183849999999998</v>
       </c>
       <c r="E17">
+        <f>_xlfn.STDEV.P(C17:C21)</f>
+        <v>9.2068758273368672E-3</v>
+      </c>
+      <c r="G17">
+        <f>D17/2</f>
+        <v>7.0919249999999989E-2</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.STDEV.S(G17:G21)</f>
+        <v>3.4061076896877425E-3</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="0"/>
-        <v>6.8078250000000007E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.5307903002358316</v>
+      </c>
+      <c r="J17">
+        <f>_xlfn.STDEV.P(I17:I22)</f>
+        <v>0.10855846019870592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -839,17 +965,21 @@
         <v>0.4</v>
       </c>
       <c r="C18">
-        <v>0.16410416666666666</v>
+        <v>9.6770833333333334E-2</v>
       </c>
       <c r="D18">
-        <v>0.12884300000000001</v>
-      </c>
-      <c r="E18">
+        <v>0.13864300000000002</v>
+      </c>
+      <c r="G18">
+        <f>D18/2</f>
+        <v>6.9321500000000008E-2</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="0"/>
-        <v>6.4421500000000007E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3959714278158049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -857,17 +987,21 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="C19">
-        <v>0.11324999999999999</v>
+        <v>8.9874999999999997E-2</v>
       </c>
       <c r="D19">
-        <v>0.128471</v>
-      </c>
-      <c r="E19">
+        <v>0.13615650000000001</v>
+      </c>
+      <c r="G19">
+        <f>D19/2</f>
+        <v>6.8078250000000007E-2</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="0"/>
-        <v>6.4235500000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3201720079467376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -875,17 +1009,21 @@
         <v>0.7</v>
       </c>
       <c r="C20">
-        <v>0.10856249999999999</v>
+        <v>8.7249999999999994E-2</v>
       </c>
       <c r="D20">
-        <v>0.12553900000000001</v>
-      </c>
-      <c r="E20">
+        <v>0.12884300000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>6.4421500000000007E-2</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
-        <v>6.2769500000000006E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3543615097444175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -893,17 +1031,21 @@
         <v>0.85</v>
       </c>
       <c r="C21">
-        <v>9.6770833333333334E-2</v>
+        <v>8.1833333333333341E-2</v>
       </c>
       <c r="D21">
-        <v>0.124529</v>
-      </c>
-      <c r="E21">
+        <v>0.12553900000000001</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>6.2769500000000006E-2</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
-        <v>6.22645E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3037117283606423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -911,17 +1053,21 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>8.4316666666666665E-2</v>
+        <v>7.2750000000000009E-2</v>
       </c>
       <c r="D22">
-        <v>9.6581475E-2</v>
-      </c>
-      <c r="E22">
+        <v>0.124529</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>6.22645E-2</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
-        <v>4.82907375E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.1684025407736351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -932,30 +1078,34 @@
         <v>0.29162500000000002</v>
       </c>
       <c r="D23">
-        <v>0.21016133333333331</v>
+        <v>0.172981</v>
       </c>
       <c r="E23">
+        <f>AVERAGE(C24:C28)</f>
+        <v>0.1464388888888889</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(D24:D28)</f>
+        <v>0.17062541666666667</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>8.6490499999999998E-2</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE(G24:G28)</f>
+        <v>8.5312708333333334E-2</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.10508066666666666</v>
-      </c>
-      <c r="F23">
-        <f>AVERAGE(C25:C29)</f>
-        <v>0.13745555555555555</v>
-      </c>
-      <c r="G23">
-        <f>_xlfn.STDEV.P(C25:C29)</f>
-        <v>2.2231411988723283E-2</v>
-      </c>
-      <c r="H23">
-        <f>AVERAGE(E25:E29)</f>
-        <v>7.3312055000000001E-2</v>
-      </c>
-      <c r="I23">
-        <f>_xlfn.STDEV.P(E25:E29)</f>
-        <v>2.12888140896716E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.3717575918742524</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(I24:I28)</f>
+        <v>1.8642615674921594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -966,14 +1116,30 @@
         <v>0.18629166666666669</v>
       </c>
       <c r="D24">
-        <v>0.18996350000000001</v>
+        <v>0.18638199999999999</v>
       </c>
       <c r="E24">
+        <f>_xlfn.STDEV.P(C24:C28)</f>
+        <v>2.2589403311626243E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>9.3190999999999996E-2</v>
+      </c>
+      <c r="H24">
+        <f>_xlfn.STDEV.S(G24:G28)</f>
+        <v>2.4805929430265369E-2</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="0"/>
-        <v>9.4981750000000004E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.9990306646206897</v>
+      </c>
+      <c r="J24">
+        <f>_xlfn.STDEV.P(I25:I28)</f>
+        <v>0.67516749394379105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -981,17 +1147,21 @@
         <v>0.4</v>
       </c>
       <c r="C25">
-        <v>0.16487499999999999</v>
+        <v>0.12475000000000001</v>
       </c>
       <c r="D25">
-        <v>0.18638199999999999</v>
-      </c>
-      <c r="E25">
+        <v>0.18268200000000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>9.1341000000000006E-2</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="0"/>
-        <v>9.3190999999999996E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.365761268214712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1002,14 +1172,18 @@
         <v>0.15262500000000001</v>
       </c>
       <c r="D26">
-        <v>0.18268200000000001</v>
-      </c>
-      <c r="E26">
+        <v>0.18996350000000001</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>9.4981750000000004E-2</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="0"/>
-        <v>9.1341000000000006E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.606887638941165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1020,14 +1194,18 @@
         <v>0.14315277777777777</v>
       </c>
       <c r="D27">
-        <v>0.172981</v>
-      </c>
-      <c r="E27">
+        <v>0.21016133333333331</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.10508066666666666</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="0"/>
-        <v>8.6490499999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3623131858487554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1038,14 +1216,18 @@
         <v>0.12537500000000001</v>
       </c>
       <c r="D28">
-        <v>0.10713729999999999</v>
-      </c>
-      <c r="E28">
+        <v>8.3938250000000006E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>4.1969125000000003E-2</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="0"/>
-        <v>5.3568649999999995E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.9873150798354744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1053,17 +1235,21 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>0.10124999999999999</v>
+        <v>8.4583333333333344E-2</v>
       </c>
       <c r="D29">
-        <v>8.3938250000000006E-2</v>
-      </c>
-      <c r="E29">
+        <v>0.10713729999999999</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>5.3568649999999995E-2</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
-        <v>4.1969125000000003E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.578970784840263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1077,27 +1263,31 @@
         <v>0.167212</v>
       </c>
       <c r="E30">
+        <f>AVERAGE(C31:C35)</f>
+        <v>7.7800000000000008E-2</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGE(D31:D35)</f>
+        <v>0.10682800666666667</v>
+      </c>
+      <c r="G30">
+        <f>D30/2</f>
+        <v>8.3606E-2</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE(G31:G35)</f>
+        <v>5.3414003333333335E-2</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="0"/>
-        <v>8.3606E-2</v>
-      </c>
-      <c r="F30">
-        <f>AVERAGE(C32:C36)</f>
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="G30">
-        <f>_xlfn.STDEV.P(C32:C36)</f>
-        <v>9.0792269005191776E-3</v>
-      </c>
-      <c r="H30">
-        <f>AVERAGE(E32:E36)</f>
-        <v>4.3266723333333333E-2</v>
-      </c>
-      <c r="I30">
-        <f>_xlfn.STDEV.P(E32:E36)</f>
-        <v>1.7396297233956932E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.4346391938909224</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGE(I31,I33:I35)</f>
+        <v>1.7478769103051723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1111,11 +1301,27 @@
         <v>0.15040200000000001</v>
       </c>
       <c r="E31">
+        <f>_xlfn.STDEV.P(C31:C35)</f>
+        <v>1.0751853845319426E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>7.5201000000000004E-2</v>
+      </c>
+      <c r="H31">
+        <f>_xlfn.STDEV.S(G31:G35)</f>
+        <v>2.0399739671440799E-2</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="0"/>
-        <v>7.5201000000000004E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.235023470432574</v>
+      </c>
+      <c r="J31">
+        <f>_xlfn.STDEV.P(I31,I33:I36)</f>
+        <v>0.72340421504142149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1128,12 +1334,16 @@
       <c r="D32">
         <v>0.133435</v>
       </c>
-      <c r="E32">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>6.6717499999999999E-2</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="0"/>
-        <v>6.6717499999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.2815228388353879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1146,12 +1356,16 @@
       <c r="D33">
         <v>0.119781</v>
       </c>
-      <c r="E33">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>5.9890499999999999E-2</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="0"/>
-        <v>5.9890499999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.226543998352549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1164,12 +1378,16 @@
       <c r="D34">
         <v>7.9895833333333333E-2</v>
       </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">D34/2</f>
+      <c r="G34">
+        <f t="shared" si="1"/>
         <v>3.9947916666666666E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1.5374185136897003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1182,12 +1400,16 @@
       <c r="D35">
         <v>5.0626200000000003E-2</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>2.5313100000000002E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>2.9925216587458663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1200,1148 +1422,4109 @@
       <c r="D36">
         <v>4.8929200000000006E-2</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>2.4464600000000003E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>2.5291645888344787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0.1</v>
       </c>
       <c r="C37">
-        <v>0.168375</v>
+        <v>0.16549999999999998</v>
       </c>
       <c r="D37">
-        <v>0.150475</v>
+        <v>0.15401500000000001</v>
       </c>
       <c r="E37">
+        <f>AVERAGE(C38:C42)</f>
+        <v>0.10924999999999999</v>
+      </c>
+      <c r="F37">
+        <f>AVERAGE(D38:D42)</f>
+        <v>0.12582766000000001</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="1"/>
-        <v>7.5237499999999999E-2</v>
-      </c>
-      <c r="F37">
-        <f>AVERAGE(C39:C43)</f>
-        <v>0.10949166666666668</v>
-      </c>
-      <c r="G37">
-        <f>_xlfn.STDEV.P(C39:C43)</f>
-        <v>2.5100484169743732E-2</v>
+        <v>7.7007500000000007E-2</v>
       </c>
       <c r="H37">
-        <f>AVERAGE(E39:E43)</f>
-        <v>6.5911789999999998E-2</v>
+        <f>AVERAGE(G38:G42)</f>
+        <v>6.2913830000000004E-2</v>
       </c>
       <c r="I37">
-        <f>_xlfn.STDEV.P(E39:E43)</f>
-        <v>7.2843597773860685E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I37:I92" si="2">C37/G37</f>
+        <v>2.1491413174041485</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE(I38:I42)</f>
+        <v>1.7692023741625342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0.25</v>
       </c>
       <c r="C38">
-        <v>0.167875</v>
+        <v>0.14154166666666665</v>
       </c>
       <c r="D38">
-        <v>0.14138000000000001</v>
+        <v>0.15323100000000001</v>
       </c>
       <c r="E38">
+        <f>_xlfn.STDEV.P(C38:C42)</f>
+        <v>1.905558390020571E-2</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="1"/>
-        <v>7.0690000000000003E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.6615500000000003E-2</v>
+      </c>
+      <c r="H38">
+        <f>_xlfn.STDEV.S(G38:G42)</f>
+        <v>1.485563770255253E-2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.8474286099636059</v>
+      </c>
+      <c r="J38">
+        <f>_xlfn.STDEV.P(I38:I42)</f>
+        <v>0.22300522791717545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>0.4</v>
       </c>
       <c r="C39">
-        <v>0.14158333333333334</v>
+        <v>0.11887499999999999</v>
       </c>
       <c r="D39">
-        <v>0.145542</v>
-      </c>
-      <c r="E39">
+        <v>0.14790400000000001</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="1"/>
-        <v>7.2771000000000002E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.3952000000000004E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>1.6074615967113801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>0.54999999999999993</v>
       </c>
       <c r="C40">
-        <v>0.12108333333333335</v>
+        <v>9.9874999999999992E-2</v>
       </c>
       <c r="D40">
-        <v>0.13589899999999999</v>
-      </c>
-      <c r="E40">
+        <v>0.13716800000000001</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="1"/>
-        <v>6.7949499999999996E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.8584000000000006E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1.4562434387029042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>0.7</v>
       </c>
       <c r="C41">
-        <v>0.11637499999999999</v>
+        <v>9.8583333333333328E-2</v>
       </c>
       <c r="D41">
-        <v>0.14180000000000001</v>
-      </c>
-      <c r="E41">
+        <v>0.1079594</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="1"/>
-        <v>7.0900000000000005E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.3979699999999999E-2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>1.8263038389122823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>0.85</v>
       </c>
       <c r="C42">
-        <v>0.10237500000000001</v>
+        <v>8.7375000000000008E-2</v>
       </c>
       <c r="D42">
-        <v>0.13156399999999999</v>
-      </c>
-      <c r="E42">
+        <v>8.2875900000000002E-2</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="1"/>
-        <v>6.5781999999999993E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.1437950000000001E-2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>2.1085743865224993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>6.6041666666666665E-2</v>
+        <v>4.2083333333333334E-2</v>
       </c>
       <c r="D43">
-        <v>0.1043129</v>
-      </c>
-      <c r="E43">
+        <v>4.80755E-2</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="1"/>
-        <v>5.215645E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.403775E-2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>1.7507184879339095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0.1</v>
       </c>
       <c r="C44">
-        <v>0.16549999999999998</v>
+        <v>0.17650000000000002</v>
       </c>
       <c r="D44">
-        <v>0.15401500000000001</v>
+        <v>0.15153899999999998</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
-        <v>7.7007500000000007E-2</v>
+        <f>AVERAGE(C45:C49)</f>
+        <v>9.4970833333333338E-2</v>
       </c>
       <c r="F44">
-        <f>AVERAGE(C46:C50)</f>
-        <v>9.5662500000000011E-2</v>
+        <f>AVERAGE(D45:D49)</f>
+        <v>0.11797414000000002</v>
       </c>
       <c r="G44">
-        <f>_xlfn.STDEV.P(C46:C50)</f>
-        <v>2.539057540593443E-2</v>
+        <f>D44/2</f>
+        <v>7.576949999999999E-2</v>
       </c>
       <c r="H44">
-        <f>AVERAGE(E46:E50)</f>
-        <v>5.2398279999999998E-2</v>
+        <f>AVERAGE(G45:G50)</f>
+        <v>5.6598708333333338E-2</v>
       </c>
       <c r="I44">
-        <f>_xlfn.STDEV.P(E46:E50)</f>
-        <v>1.8185102488372188E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.3294333471911526</v>
+      </c>
+      <c r="J44">
+        <f>AVERAGE(I45:I49)</f>
+        <v>1.6205543914670497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>0.25</v>
       </c>
       <c r="C45">
-        <v>0.14154166666666665</v>
+        <v>0.12506249999999999</v>
       </c>
       <c r="D45">
-        <v>0.15323100000000001</v>
+        <v>0.14675199999999999</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>7.6615500000000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <f>_xlfn.STDEV.P(C45:C49)</f>
+        <v>1.6185500198222697E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G50" si="3">D45/2</f>
+        <v>7.3375999999999997E-2</v>
+      </c>
+      <c r="H45">
+        <f>_xlfn.STDEV.S(G45:G50)</f>
+        <v>1.2184082283389915E-2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>1.7044060728303532</v>
+      </c>
+      <c r="J45">
+        <f>_xlfn.STDEV.P(I45:I49)</f>
+        <v>0.12715184038435676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>0.4</v>
       </c>
       <c r="C46">
-        <v>0.13162499999999999</v>
+        <v>9.5458333333333339E-2</v>
       </c>
       <c r="D46">
-        <v>0.14790400000000001</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>7.3952000000000004E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.1373335</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>6.8666749999999999E-2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>1.3901682158152722</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>0.54999999999999993</v>
       </c>
       <c r="C47">
-        <v>0.106125</v>
+        <v>9.2624999999999999E-2</v>
       </c>
       <c r="D47">
-        <v>0.13716800000000001</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>6.8584000000000006E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.115762</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>5.7881000000000002E-2</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>1.6002660631295242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>0.7</v>
       </c>
       <c r="C48">
-        <v>9.922916666666666E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D48">
-        <v>0.1079594</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>5.3979699999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.8337599999999997E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>4.9168799999999999E-2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>1.6473861473129303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>0.85</v>
       </c>
       <c r="C49">
-        <v>8.7375000000000008E-2</v>
+        <v>8.0708333333333326E-2</v>
       </c>
       <c r="D49">
-        <v>8.2875900000000002E-2</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>4.1437950000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.1685600000000006E-2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>4.5842800000000003E-2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>1.7605454582471691</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>5.395833333333333E-2</v>
+        <v>7.5791666666666674E-2</v>
       </c>
       <c r="D50">
-        <v>4.80755E-2</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>2.403775E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.9313799999999999E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>4.4656899999999999E-2</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>1.6971994622704818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>0.1</v>
       </c>
       <c r="C51">
-        <v>0.17650000000000002</v>
+        <v>0.170875</v>
       </c>
       <c r="D51">
-        <v>0.15153899999999998</v>
+        <v>0.11497</v>
       </c>
       <c r="E51">
+        <f>AVERAGE(C52:C55)</f>
+        <v>0.10634895833333333</v>
+      </c>
+      <c r="F51">
+        <f>AVERAGE(D52:D56)</f>
+        <v>9.0722626666666667E-2</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="1"/>
-        <v>7.576949999999999E-2</v>
-      </c>
-      <c r="F51">
-        <f>AVERAGE(C53:C57)</f>
-        <v>8.511666666666666E-2</v>
-      </c>
-      <c r="G51">
-        <f>_xlfn.STDEV.P(C53:C57)</f>
-        <v>7.5718044231360216E-3</v>
+        <v>5.7485000000000001E-2</v>
       </c>
       <c r="H51">
-        <f>AVERAGE(E53:E57)</f>
-        <v>5.3243250000000006E-2</v>
+        <f>AVERAGE(G52:G56)</f>
+        <v>4.5361313333333333E-2</v>
       </c>
       <c r="I51">
-        <f>_xlfn.STDEV.P(E53:E57)</f>
-        <v>8.9942902626054515E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.9725145690180046</v>
+      </c>
+      <c r="J51">
+        <f>AVERAGE(I52:I56)</f>
+        <v>2.3360447045022634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52">
         <v>0.25</v>
       </c>
       <c r="C52">
-        <v>0.12506249999999999</v>
+        <v>0.12050000000000001</v>
       </c>
       <c r="D52">
-        <v>0.14675199999999999</v>
+        <v>9.7284000000000009E-2</v>
       </c>
       <c r="E52">
+        <f>_xlfn.STDEV.P(C52:C56)</f>
+        <v>7.9483750959970893E-3</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="1"/>
-        <v>7.3375999999999997E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.8642000000000005E-2</v>
+      </c>
+      <c r="H52">
+        <f>_xlfn.STDEV.S(G52:G56)</f>
+        <v>2.975622006466558E-3</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>2.4772830064553268</v>
+      </c>
+      <c r="J52">
+        <f>_xlfn.STDEV.P(I53:I57)</f>
+        <v>0.54415041181229384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53">
         <v>0.4</v>
       </c>
       <c r="C53">
-        <v>9.5458333333333339E-2</v>
+        <v>0.10479166666666667</v>
       </c>
       <c r="D53">
-        <v>0.1373335</v>
-      </c>
-      <c r="E53">
+        <v>8.9723300000000006E-2</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="1"/>
-        <v>6.8666749999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.4861650000000003E-2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>2.3358852531430889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <v>0.54999999999999993</v>
       </c>
       <c r="C54">
-        <v>9.2624999999999999E-2</v>
+        <v>0.10379166666666667</v>
       </c>
       <c r="D54">
-        <v>0.115762</v>
-      </c>
-      <c r="E54">
+        <v>9.3690433333333323E-2</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="1"/>
-        <v>5.7881000000000002E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.6845216666666661E-2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>2.2156299842780109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55">
         <v>0.7</v>
       </c>
       <c r="C55">
-        <v>8.1000000000000003E-2</v>
+        <v>9.6312499999999995E-2</v>
       </c>
       <c r="D55">
-        <v>9.8337599999999997E-2</v>
-      </c>
-      <c r="E55">
+        <v>9.1577850000000002E-2</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="1"/>
-        <v>4.9168799999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.5788925000000001E-2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>2.1034016413357595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56">
         <v>0.85</v>
       </c>
       <c r="C56">
-        <v>8.0708333333333326E-2</v>
+        <v>0.10362499999999999</v>
       </c>
       <c r="D56">
-        <v>9.1685600000000006E-2</v>
-      </c>
-      <c r="E56">
+        <v>8.1337549999999995E-2</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="1"/>
-        <v>4.5842800000000003E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.0668774999999997E-2</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>2.5480236372991318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>7.5791666666666674E-2</v>
+        <v>3.8777777777777779E-2</v>
       </c>
       <c r="D57">
-        <v>8.9313799999999999E-2</v>
-      </c>
-      <c r="E57">
+        <v>7.8244933333333336E-2</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="1"/>
-        <v>4.4656899999999999E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.9122466666666668E-2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>0.99118948986970257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>0.1</v>
       </c>
       <c r="C58">
-        <v>0.170875</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="D58">
-        <v>0.13721800000000001</v>
+        <v>0.14851500000000001</v>
       </c>
       <c r="E58">
+        <f>AVERAGE(C59:C63)</f>
+        <v>0.10166250000000002</v>
+      </c>
+      <c r="F58">
+        <f>AVERAGE(D59:D63)</f>
+        <v>0.12431209999999999</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="1"/>
-        <v>6.8609000000000003E-2</v>
-      </c>
-      <c r="F58">
-        <f>AVERAGE(C60:C64)</f>
-        <v>9.636249999999999E-2</v>
-      </c>
-      <c r="G58">
-        <f>_xlfn.STDEV.P(C60:C64)</f>
-        <v>1.1823114719339667E-2</v>
+        <v>7.4257500000000004E-2</v>
       </c>
       <c r="H58">
-        <f>AVERAGE(E60:E64)</f>
-        <v>4.1111280000000007E-2</v>
+        <f>AVERAGE(G59:G63)</f>
+        <v>6.2156049999999997E-2</v>
       </c>
       <c r="I58">
-        <f>_xlfn.STDEV.P(E60:E64)</f>
-        <v>3.3343986471101503E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.726997273002727</v>
+      </c>
+      <c r="J58">
+        <f>AVERAGE(I59:I63)</f>
+        <v>1.6259464908534924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>0.25</v>
       </c>
       <c r="C59">
-        <v>0.12050000000000001</v>
+        <v>0.142625</v>
       </c>
       <c r="D59">
-        <v>0.12347933333333333</v>
+        <v>0.14194599999999999</v>
       </c>
       <c r="E59">
+        <f>_xlfn.STDEV.P(C59:C63)</f>
+        <v>3.194381569429533E-2</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="1"/>
-        <v>6.1739666666666665E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.0972999999999994E-2</v>
+      </c>
+      <c r="H59">
+        <f>_xlfn.STDEV.S(G59:G63)</f>
+        <v>5.636106913242506E-3</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>2.0095670184436338</v>
+      </c>
+      <c r="J59">
+        <f>_xlfn.STDEV.P(I59:I63)</f>
+        <v>0.4570587247065665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>0.4</v>
       </c>
       <c r="C60">
-        <v>0.10479166666666667</v>
+        <v>4.4333333333333336E-2</v>
       </c>
       <c r="D60">
-        <v>9.1577850000000002E-2</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>4.5788925000000001E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.121639</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60:G64" si="4">D60/2</f>
+        <v>6.0819499999999999E-2</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>0.7289328806276496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>0.54999999999999993</v>
       </c>
       <c r="C61">
-        <v>0.10379166666666667</v>
+        <v>0.1119375</v>
       </c>
       <c r="D61">
-        <v>8.6358500000000005E-2</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>4.3179250000000002E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.1246005</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>6.2300250000000001E-2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>1.7967423886742027</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <v>0.7</v>
       </c>
       <c r="C62">
-        <v>9.604166666666665E-2</v>
+        <v>0.10729166666666667</v>
       </c>
       <c r="D62">
-        <v>8.1337549999999995E-2</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>4.0668774999999997E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.122762</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>6.1380999999999998E-2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>1.7479621815654141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>0.85</v>
       </c>
       <c r="C63">
-        <v>0.10362499999999999</v>
+        <v>0.10212499999999999</v>
       </c>
       <c r="D63">
-        <v>8.0249299999999996E-2</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>4.0124649999999998E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.110613</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>5.5306500000000001E-2</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>1.8465279849565601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>7.3562500000000003E-2</v>
+        <v>8.9312500000000003E-2</v>
       </c>
       <c r="D64">
-        <v>7.1589600000000003E-2</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>3.5794800000000002E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.6023150000000007E-2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>4.3011575000000003E-2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>2.0764759253759015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>0.1</v>
       </c>
       <c r="C65">
-        <v>0.20250000000000001</v>
+        <v>0.17778125</v>
       </c>
       <c r="D65">
-        <v>0.14851500000000001</v>
+        <v>0.25159874999999998</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
-        <v>7.4257500000000004E-2</v>
+        <f>AVERAGE(C66:C70)</f>
+        <v>0.12349375</v>
       </c>
       <c r="F65">
-        <f>AVERAGE(C67:C71)</f>
-        <v>0.10861666666666667</v>
+        <f>AVERAGE(D66:D70)</f>
+        <v>0.22846666666666665</v>
       </c>
       <c r="G65">
-        <f>_xlfn.STDEV.P(C67:C71)</f>
-        <v>1.436277620370708E-2</v>
+        <f>D65/2</f>
+        <v>0.12579937499999999</v>
       </c>
       <c r="H65">
-        <f>AVERAGE(E67:E71)</f>
-        <v>5.1285629999999992E-2</v>
+        <f>AVERAGE(G66:G70)</f>
+        <v>0.11423333333333333</v>
       </c>
       <c r="I65">
-        <f>_xlfn.STDEV.P(E67:E71)</f>
-        <v>5.7740900752932473E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <f>C65/G65</f>
+        <v>1.4132125060239769</v>
+      </c>
+      <c r="J65">
+        <f>AVERAGE(I66:I70)</f>
+        <v>1.0766253242402501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66">
         <v>0.25</v>
       </c>
       <c r="C66">
-        <v>0.142625</v>
+        <v>0.15402083333333333</v>
       </c>
       <c r="D66">
-        <v>0.14194599999999999</v>
+        <v>0.240479</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E97" si="2">D66/2</f>
-        <v>7.0972999999999994E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <f>_xlfn.STDEV.P(C66:C70)</f>
+        <v>2.1381163422637975E-2</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66:G71" si="5">D66/2</f>
+        <v>0.1202395</v>
+      </c>
+      <c r="H66">
+        <f>_xlfn.STDEV.S(G66:G70)</f>
+        <v>4.8287952499533673E-3</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>1.280950380975747</v>
+      </c>
+      <c r="J66">
+        <f>_xlfn.STDEV.P(I66:I70)</f>
+        <v>0.15533645357177525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67">
         <v>0.4</v>
       </c>
       <c r="C67">
-        <v>0.13325000000000001</v>
+        <v>0.13288541666666667</v>
       </c>
       <c r="D67">
-        <v>0.121639</v>
-      </c>
-      <c r="E67">
+        <v>0.23265649999999999</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>0.11632824999999999</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="2"/>
-        <v>6.0819499999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.142331434253216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B68">
         <v>0.54999999999999993</v>
       </c>
       <c r="C68">
-        <v>0.1119375</v>
+        <v>0.12091666666666667</v>
       </c>
       <c r="D68">
-        <v>0.108455</v>
-      </c>
-      <c r="E68">
+        <v>0.21871200000000002</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>0.10935600000000001</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="2"/>
-        <v>5.4227499999999998E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.1057158881695257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69">
         <v>0.7</v>
       </c>
       <c r="C69">
-        <v>0.10295833333333335</v>
+        <v>0.12158333333333333</v>
       </c>
       <c r="D69">
-        <v>0.100411</v>
-      </c>
-      <c r="E69">
+        <v>0.23214533333333334</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>0.11607266666666667</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="2"/>
-        <v>5.02055E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0474760064097777</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>0.85</v>
       </c>
       <c r="C70">
-        <v>0.105625</v>
+        <v>8.8062499999999988E-2</v>
       </c>
       <c r="D70">
-        <v>9.2628000000000002E-2</v>
-      </c>
-      <c r="E70">
+        <v>0.21834049999999999</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>0.10917025</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="2"/>
-        <v>4.6314000000000001E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.80665291139298467</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>8.9312500000000003E-2</v>
+        <v>0.10047222222222223</v>
       </c>
       <c r="D71">
-        <v>8.9723300000000006E-2</v>
-      </c>
-      <c r="E71">
+        <v>0.16298466666666667</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>8.1492333333333333E-2</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="2"/>
-        <v>4.4861650000000003E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.2329039814242921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B72">
         <v>0.1</v>
       </c>
       <c r="C72">
-        <v>0.17778125</v>
+        <v>0.19208333333333333</v>
       </c>
       <c r="D72">
-        <v>0.25159874999999998</v>
+        <v>0.176236</v>
       </c>
       <c r="E72">
+        <f>AVERAGE(C73:C77)</f>
+        <v>0.13090138888888889</v>
+      </c>
+      <c r="F72">
+        <f>AVERAGE(D73:D77)</f>
+        <v>0.15453489999999998</v>
+      </c>
+      <c r="G72">
+        <f>D72/2</f>
+        <v>8.8118000000000002E-2</v>
+      </c>
+      <c r="H72">
+        <f>AVERAGE(G73:G77)</f>
+        <v>7.7267449999999988E-2</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="2"/>
-        <v>0.12579937499999999</v>
-      </c>
-      <c r="F72">
-        <f>AVERAGE(C74:C78)</f>
-        <v>0.11278402777777777</v>
-      </c>
-      <c r="G72">
-        <f>_xlfn.STDEV.P(C74:C78)</f>
-        <v>1.6188686917256216E-2</v>
-      </c>
-      <c r="H72">
-        <f>AVERAGE(E74:E78)</f>
-        <v>0.10648390000000001</v>
-      </c>
-      <c r="I72">
-        <f>_xlfn.STDEV.P(E74:E78)</f>
-        <v>1.2875554452505801E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.1798421813174755</v>
+      </c>
+      <c r="J72">
+        <f>AVERAGE(I73:I77)</f>
+        <v>1.6650684851516111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73">
         <v>0.25</v>
       </c>
       <c r="C73">
-        <v>0.15402083333333333</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="D73">
-        <v>0.240479</v>
+        <v>0.17472499999999999</v>
       </c>
       <c r="E73">
+        <f>_xlfn.STDEV.P(C73:C77)</f>
+        <v>3.9417116022025619E-2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G78" si="6">D73/2</f>
+        <v>8.7362499999999996E-2</v>
+      </c>
+      <c r="H73">
+        <f>AVEDEV(G73:G77)</f>
+        <v>7.3288600000000039E-3</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="2"/>
-        <v>0.1202395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.0145943625697527</v>
+      </c>
+      <c r="J73">
+        <f>_xlfn.STDEV.P(I73:I77)</f>
+        <v>0.38724823173458173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <v>0.4</v>
       </c>
       <c r="C74">
-        <v>0.13288541666666667</v>
+        <v>0.16308333333333333</v>
       </c>
       <c r="D74">
-        <v>0.23265649999999999</v>
-      </c>
-      <c r="E74">
+        <v>0.16634699999999999</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>8.3173499999999997E-2</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="2"/>
-        <v>0.11632824999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.9607607390975892</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B75">
         <v>0.54999999999999993</v>
       </c>
       <c r="C75">
-        <v>0.12091666666666667</v>
+        <v>0.13437500000000002</v>
       </c>
       <c r="D75">
-        <v>0.21871200000000002</v>
-      </c>
-      <c r="E75">
+        <v>0.15917700000000001</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>7.9588500000000006E-2</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="2"/>
-        <v>0.10935600000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.6883720638031878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B76">
         <v>0.7</v>
       </c>
       <c r="C76">
-        <v>0.12158333333333333</v>
+        <v>0.11722916666666666</v>
       </c>
       <c r="D76">
-        <v>0.23214533333333334</v>
-      </c>
-      <c r="E76">
+        <v>0.13564850000000001</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="6"/>
+        <v>6.7824250000000003E-2</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="2"/>
-        <v>0.11607266666666667</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.7284255508415745</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B77">
         <v>0.85</v>
       </c>
       <c r="C77">
-        <v>8.8062499999999988E-2</v>
+        <v>6.3819444444444443E-2</v>
       </c>
       <c r="D77">
-        <v>0.21834049999999999</v>
-      </c>
-      <c r="E77">
+        <v>0.13677699999999998</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="6"/>
+        <v>6.8388499999999991E-2</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="2"/>
-        <v>0.10917025</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.93318970944595148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>0.10047222222222223</v>
+        <v>5.1930555555555556E-2</v>
       </c>
       <c r="D78">
-        <v>0.16298466666666667</v>
-      </c>
-      <c r="E78">
+        <v>0.11878124999999999</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="6"/>
+        <v>5.9390624999999996E-2</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="2"/>
-        <v>8.1492333333333333E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.87438978046712856</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79">
         <v>0.1</v>
       </c>
       <c r="C79">
-        <v>0.19208333333333333</v>
+        <v>0.24597916666666669</v>
       </c>
       <c r="D79">
-        <v>0.16912125</v>
+        <v>0.22288550000000001</v>
       </c>
       <c r="E79">
+        <f>AVERAGE(C80:C84)</f>
+        <v>0.12847638888888885</v>
+      </c>
+      <c r="F79">
+        <f>AVERAGE(D80:D84)</f>
+        <v>0.1960006</v>
+      </c>
+      <c r="G79">
+        <f>D79/2</f>
+        <v>0.11144275000000001</v>
+      </c>
+      <c r="H79">
+        <f>AVERAGE(G80:G84)</f>
+        <v>9.8000299999999999E-2</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="2"/>
-        <v>8.4560625E-2</v>
-      </c>
-      <c r="F79">
-        <f>AVERAGE(C81:C85)</f>
-        <v>0.11712708333333333</v>
-      </c>
-      <c r="G79">
-        <f>_xlfn.STDEV.P(C81:C85)</f>
-        <v>3.096829583981375E-2</v>
-      </c>
-      <c r="H79">
-        <f>AVERAGE(E81:E85)</f>
-        <v>6.1435649999999994E-2</v>
-      </c>
-      <c r="I79">
-        <f>_xlfn.STDEV.P(E81:E85)</f>
-        <v>5.2945441201297039E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.2072244867132826</v>
+      </c>
+      <c r="J79">
+        <f>AVERAGE(I80:I84)</f>
+        <v>1.2990701919748873</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>0.25</v>
       </c>
       <c r="C80">
-        <v>0.17600000000000002</v>
+        <v>0.18454166666666666</v>
       </c>
       <c r="D80">
-        <v>0.13787749999999999</v>
+        <v>0.21437299999999998</v>
       </c>
       <c r="E80">
+        <f>_xlfn.STDEV.P(C80:C84)</f>
+        <v>3.8285136165809475E-2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ref="G80:G92" si="7">D80/2</f>
+        <v>0.10718649999999999</v>
+      </c>
+      <c r="H80">
+        <f>_xlfn.STDEV.S(G80:G84)</f>
+        <v>7.4803705485590698E-3</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="2"/>
-        <v>6.8938749999999993E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.7216875881446514</v>
+      </c>
+      <c r="J80">
+        <f>_xlfn.STDEV.P(I80:I84)</f>
+        <v>0.34209072902541193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>0.4</v>
       </c>
       <c r="C81">
-        <v>0.16308333333333333</v>
+        <v>0.11461111111111105</v>
       </c>
       <c r="D81">
-        <v>0.13617950000000001</v>
-      </c>
-      <c r="E81">
+        <v>0.20825199999999999</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="7"/>
+        <v>0.104126</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="2"/>
-        <v>6.8089750000000004E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.1006963785328454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>0.54999999999999993</v>
       </c>
       <c r="C82">
-        <v>0.13437500000000002</v>
+        <v>0.13672916666666668</v>
       </c>
       <c r="D82">
-        <v>0.130965</v>
-      </c>
-      <c r="E82">
+        <v>0.19321099999999999</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="7"/>
+        <v>9.6605499999999997E-2</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="2"/>
-        <v>6.5482499999999999E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.4153352207344994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>0.7</v>
       </c>
       <c r="C83">
-        <v>0.11722916666666666</v>
+        <v>0.13966666666666666</v>
       </c>
       <c r="D83">
-        <v>0.12500700000000001</v>
-      </c>
-      <c r="E83">
+        <v>0.18458350000000001</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="7"/>
+        <v>9.2291750000000006E-2</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="2"/>
-        <v>6.2503500000000004E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.513316917998268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>0.85</v>
       </c>
       <c r="C84">
-        <v>9.9291666666666667E-2</v>
+        <v>6.6833333333333342E-2</v>
       </c>
       <c r="D84">
-        <v>0.115372</v>
-      </c>
-      <c r="E84">
+        <v>0.17958350000000001</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="7"/>
+        <v>8.9791750000000004E-2</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="2"/>
-        <v>5.7686000000000001E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.74431485446417223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>7.1656250000000005E-2</v>
+        <v>8.0250000000000002E-2</v>
       </c>
       <c r="D85">
-        <v>0.106833</v>
-      </c>
-      <c r="E85">
+        <v>0.16642266666666666</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="7"/>
+        <v>8.3211333333333332E-2</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="2"/>
-        <v>5.3416499999999999E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.96441189902016555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B86">
         <v>0.1</v>
       </c>
       <c r="C86">
-        <v>0.24597916666666669</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="D86">
-        <v>0.22288550000000001</v>
+        <v>0.156338</v>
       </c>
       <c r="E86">
+        <f>AVERAGE(C87:C91)</f>
+        <v>0.13884583333333333</v>
+      </c>
+      <c r="F86">
+        <f>AVERAGE(D87:D91)</f>
+        <v>0.1419956</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>7.8169000000000002E-2</v>
+      </c>
+      <c r="H86">
+        <f>AVERAGE(G87:G91)</f>
+        <v>7.09978E-2</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="2"/>
-        <v>0.11144275000000001</v>
-      </c>
-      <c r="F86">
-        <f>AVERAGE(C88:C92)</f>
-        <v>0.13166527777777776</v>
-      </c>
-      <c r="G86">
-        <f>_xlfn.STDEV.P(C88:C92)</f>
-        <v>1.3496228897156843E-2</v>
-      </c>
-      <c r="H86">
-        <f>AVERAGE(E88:E92)</f>
-        <v>9.3205266666666661E-2</v>
-      </c>
-      <c r="I86">
-        <f>_xlfn.STDEV.P(E88:E92)</f>
-        <v>6.9740851079390879E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.8123424887103583</v>
+      </c>
+      <c r="J86">
+        <f>AVERAGE(I87:I91)</f>
+        <v>1.9469485105779132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B87">
         <v>0.25</v>
       </c>
       <c r="C87">
-        <v>0.18454166666666666</v>
+        <v>0.168375</v>
       </c>
       <c r="D87">
-        <v>0.21437299999999998</v>
+        <v>0.150475</v>
       </c>
       <c r="E87">
+        <f>_xlfn.STDEV.P(C87:C91)</f>
+        <v>2.7649817911797409E-2</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>7.5237499999999999E-2</v>
+      </c>
+      <c r="H87">
+        <f>_xlfn.STDEV.S(G87:G91)</f>
+        <v>3.0645046214682081E-3</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="2"/>
-        <v>0.10718649999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.2379132746303374</v>
+      </c>
+      <c r="J87">
+        <f>_xlfn.STDEV.P(I87:I91)</f>
+        <v>0.33933357218119758</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B88">
         <v>0.4</v>
       </c>
       <c r="C88">
-        <v>0.14569444444444438</v>
+        <v>0.167875</v>
       </c>
       <c r="D88">
-        <v>0.20825199999999999</v>
-      </c>
-      <c r="E88">
+        <v>0.14138000000000001</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="7"/>
+        <v>7.0690000000000003E-2</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="2"/>
-        <v>0.104126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.3748054887537133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B89">
         <v>0.54999999999999993</v>
       </c>
       <c r="C89">
-        <v>0.13672916666666668</v>
+        <v>0.14158333333333334</v>
       </c>
       <c r="D89">
-        <v>0.19321099999999999</v>
-      </c>
-      <c r="E89">
+        <v>0.145542</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="7"/>
+        <v>7.2771000000000002E-2</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="2"/>
-        <v>9.6605499999999997E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.9456010407076079</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B90">
         <v>0.7</v>
       </c>
       <c r="C90">
-        <v>0.13966666666666666</v>
+        <v>0.11872916666666666</v>
       </c>
       <c r="D90">
-        <v>0.18458350000000001</v>
-      </c>
-      <c r="E90">
+        <v>0.13589899999999999</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="7"/>
+        <v>6.7949499999999996E-2</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="2"/>
-        <v>9.2291750000000006E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.7473147950561325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B91">
         <v>0.85</v>
       </c>
       <c r="C91">
-        <v>0.12945833333333334</v>
+        <v>9.7666666666666666E-2</v>
       </c>
       <c r="D91">
-        <v>0.17958350000000001</v>
-      </c>
-      <c r="E91">
+        <v>0.136682</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="7"/>
+        <v>6.8340999999999999E-2</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="2"/>
-        <v>8.9791750000000004E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.4291079537417752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0.10677777777777779</v>
+        <v>3.3875000000000002E-2</v>
       </c>
       <c r="D92">
-        <v>0.16642266666666666</v>
-      </c>
-      <c r="E92">
+        <v>0.1043129</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="7"/>
+        <v>5.215645E-2</v>
+      </c>
+      <c r="I92">
         <f t="shared" si="2"/>
-        <v>8.3211333333333332E-2</v>
+        <v>0.64948822245379056</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32407F0A-6C4E-41D6-92E3-51F460BBA971}">
+  <dimension ref="A1:H162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>12.6568</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.183</v>
+      </c>
+      <c r="E2">
+        <f>B2*0.15</f>
+        <v>1.89852</v>
+      </c>
+      <c r="F2">
+        <f>(D9-D3)/(2*(B2*0.85))</f>
+        <v>1.292028093710147E-2</v>
+      </c>
+      <c r="G2">
+        <f>2*ATAN(F2)</f>
+        <v>2.5839124131685754E-2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>9.8192799999999991</v>
+      </c>
+      <c r="C3">
+        <v>0.77581063143922624</v>
+      </c>
+      <c r="D3">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G3">
+        <f>(180*G2)/3.14159</f>
+        <v>1.4804740095631308</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.44665</v>
+      </c>
+      <c r="C4">
+        <v>0.58835171607357306</v>
+      </c>
+      <c r="D4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E4">
+        <f>B2*0.85</f>
+        <v>10.758280000000001</v>
+      </c>
+      <c r="G4">
+        <f>DEGREES(G2)</f>
+        <v>1.4804727590602318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.5132300000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.43559430503760821</v>
+      </c>
+      <c r="D5">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3.8368099999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.30314218443840463</v>
+      </c>
+      <c r="D6">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2.58338</v>
+      </c>
+      <c r="C7">
+        <v>0.20411004361291954</v>
+      </c>
+      <c r="D7">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1.3889800000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.10974179887491309</v>
+      </c>
+      <c r="D8">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0.57094999999999996</v>
+      </c>
+      <c r="C9">
+        <v>4.5110138423614179E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>37.860300000000002</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E10">
+        <f>B10*0.15</f>
+        <v>5.6790450000000003</v>
+      </c>
+      <c r="F10">
+        <f>(D20-D12)/(2*(B10*0.85))</f>
+        <v>5.1893563504592961E-3</v>
+      </c>
+      <c r="G10">
+        <f>2*ATAN(F10)</f>
+        <v>1.0378619538188395E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>36.222799999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.95674888999823027</v>
+      </c>
+      <c r="D11">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G11">
+        <f>DEGREES(G10)</f>
+        <v>0.59465109671021055</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>31.617000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.83509639384790924</v>
+      </c>
+      <c r="D12">
+        <v>0.251</v>
+      </c>
+      <c r="E12">
+        <f>B10*0.85</f>
+        <v>32.181255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>30.047799999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.79364928434270188</v>
+      </c>
+      <c r="D13">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>26.175000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.69135743773821123</v>
+      </c>
+      <c r="D14">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>19.601099999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.51772172962179375</v>
+      </c>
+      <c r="D15">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>17.329599999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.45772484634300303</v>
+      </c>
+      <c r="D16">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>13.695499999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.36173775696441912</v>
+      </c>
+      <c r="D17">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>10.711399999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.28291904712852245</v>
+      </c>
+      <c r="D18">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>7.4427399999999997</v>
+      </c>
+      <c r="C19">
+        <v>0.19658428485775334</v>
+      </c>
+      <c r="D19">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4.47628</v>
+      </c>
+      <c r="C20">
+        <v>0.11823149842975358</v>
+      </c>
+      <c r="D20">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>41.536000000000001</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E21">
+        <f>B21*0.15</f>
+        <v>6.2304000000000004</v>
+      </c>
+      <c r="F21">
+        <f>(D34-D26)/(2*(B21*0.85))</f>
+        <v>4.9283966282969282E-3</v>
+      </c>
+      <c r="G21">
+        <f>2*ATAN(F21)</f>
+        <v>9.8567134535664253E-3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>40.530799999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.97579930662557779</v>
+      </c>
+      <c r="D22">
+        <v>0.316</v>
+      </c>
+      <c r="G22">
+        <f>DEGREES(G21)</f>
+        <v>0.56474808075917415</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="C23">
+        <v>0.93677773497688743</v>
+      </c>
+      <c r="D23">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E23">
+        <f>B21*0.85</f>
+        <v>35.305599999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>37.267400000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.89723131741140216</v>
+      </c>
+      <c r="D24">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>35.654899999999998</v>
+      </c>
+      <c r="C25">
+        <v>0.8584095724191062</v>
+      </c>
+      <c r="D25">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>33.465800000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.8057058936825886</v>
+      </c>
+      <c r="D26">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>31.344200000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.75462731124807392</v>
+      </c>
+      <c r="D27">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>28.537800000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.68706182588597842</v>
+      </c>
+      <c r="D28">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>25.850100000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.62235410246533129</v>
+      </c>
+      <c r="D29">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>22.209099999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.53469520416024652</v>
+      </c>
+      <c r="D30">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>18.738399999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.45113636363636361</v>
+      </c>
+      <c r="D31">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>14.307499999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.34446022727272724</v>
+      </c>
+      <c r="D32">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>11.3377</v>
+      </c>
+      <c r="C33">
+        <v>0.27296080508474574</v>
+      </c>
+      <c r="D33">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>5.0608300000000002</v>
+      </c>
+      <c r="C34">
+        <v>0.12184201656394453</v>
+      </c>
+      <c r="D34">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>92.611000000000004</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E35">
+        <f>B35*0.15</f>
+        <v>13.89165</v>
+      </c>
+      <c r="F35">
+        <f>(D48-D38)/(2*(B35*0.85))</f>
+        <v>4.0269641454102455E-3</v>
+      </c>
+      <c r="G35">
+        <f>2*ATAN(F35)</f>
+        <v>8.0538847558951684E-3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>86.062200000000004</v>
+      </c>
+      <c r="C36">
+        <v>0.92928701774087308</v>
+      </c>
+      <c r="D36">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G36">
+        <f>DEGREES(G35)</f>
+        <v>0.46145360519754441</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>80.930199999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.87387243416008897</v>
+      </c>
+      <c r="D37">
+        <v>0.497</v>
+      </c>
+      <c r="E37">
+        <f>B35*0.85</f>
+        <v>78.719350000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>75.278000000000006</v>
+      </c>
+      <c r="C38">
+        <v>0.81284080724751917</v>
+      </c>
+      <c r="D38">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>70.995699999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.76660115968945375</v>
+      </c>
+      <c r="D39">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>64.374600000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.69510749263046501</v>
+      </c>
+      <c r="D40">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>58.912599999999998</v>
+      </c>
+      <c r="C41">
+        <v>0.63612961743205443</v>
+      </c>
+      <c r="D41">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>52.2119</v>
+      </c>
+      <c r="C42">
+        <v>0.56377644124348081</v>
+      </c>
+      <c r="D42">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>46.469799999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.50177408731144246</v>
+      </c>
+      <c r="D43">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>39.1616</v>
+      </c>
+      <c r="C44">
+        <v>0.42286121519042014</v>
+      </c>
+      <c r="D44">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>32.586399999999998</v>
+      </c>
+      <c r="C45">
+        <v>0.35186316960188313</v>
+      </c>
+      <c r="D45">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>24.055800000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.25975100150090163</v>
+      </c>
+      <c r="D46">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>14.7057</v>
+      </c>
+      <c r="C47">
+        <v>0.15878999254948115</v>
+      </c>
+      <c r="D47">
+        <v>1.1040000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>2.4845600000000001</v>
+      </c>
+      <c r="C48">
+        <v>2.6827914610575418E-2</v>
+      </c>
+      <c r="D48">
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>21.461200000000002</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.219</v>
+      </c>
+      <c r="E49">
+        <f>B49*0.15</f>
+        <v>3.2191800000000002</v>
+      </c>
+      <c r="F49">
+        <f>(D59-D50)/(2*(B49*0.85))</f>
+        <v>8.1131365934255101E-3</v>
+      </c>
+      <c r="G49">
+        <f>2*ATAN(F49)</f>
+        <v>1.6225917180330025E-2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>16.841000000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.78471846867835904</v>
+      </c>
+      <c r="D50">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G50">
+        <f>DEGREES(G49)</f>
+        <v>0.92967657316172347</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>14.0542</v>
+      </c>
+      <c r="C51">
+        <v>0.65486552476096394</v>
+      </c>
+      <c r="D51">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E51">
+        <f>B49*0.85</f>
+        <v>18.24202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>11.2234</v>
+      </c>
+      <c r="C52">
+        <v>0.52296236929901396</v>
+      </c>
+      <c r="D52">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>9.0682100000000005</v>
+      </c>
+      <c r="C53">
+        <v>0.42253974614653422</v>
+      </c>
+      <c r="D53">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>6.6256300000000001</v>
+      </c>
+      <c r="C54">
+        <v>0.30872597990792683</v>
+      </c>
+      <c r="D54">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>4.9532100000000003</v>
+      </c>
+      <c r="C55">
+        <v>0.2307983710137364</v>
+      </c>
+      <c r="D55">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>3.06602</v>
+      </c>
+      <c r="C56">
+        <v>0.14286339999627232</v>
+      </c>
+      <c r="D56">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>2.0318299999999998</v>
+      </c>
+      <c r="C57">
+        <v>9.4674575513018833E-2</v>
+      </c>
+      <c r="D57">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>0.60877999999999999</v>
+      </c>
+      <c r="C58">
+        <v>2.8366540547592863E-2</v>
+      </c>
+      <c r="D58">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>0.178923</v>
+      </c>
+      <c r="C59">
+        <v>8.3370454587814273E-3</v>
+      </c>
+      <c r="D59">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>30.0045</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0.246</v>
+      </c>
+      <c r="E60">
+        <f>B60*0.15</f>
+        <v>4.5006750000000002</v>
+      </c>
+      <c r="F60">
+        <f>(D67-D61)/(2*(B60*0.85))</f>
+        <v>4.9208305028755504E-3</v>
+      </c>
+      <c r="G60">
+        <f>2*ATAN(F60)</f>
+        <v>9.8415815696994459E-3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>24.5854</v>
+      </c>
+      <c r="C61">
+        <v>0.81939042476961788</v>
+      </c>
+      <c r="D61">
+        <v>0.308</v>
+      </c>
+      <c r="G61">
+        <f>DEGREES(G60)</f>
+        <v>0.5638810876775141</v>
+      </c>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>19.948</v>
+      </c>
+      <c r="C62">
+        <v>0.66483360829208948</v>
+      </c>
+      <c r="D62">
+        <v>0.36</v>
+      </c>
+      <c r="E62">
+        <f>B60*0.85</f>
+        <v>25.503824999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>15.3492</v>
+      </c>
+      <c r="C63">
+        <v>0.5115632655101735</v>
+      </c>
+      <c r="D63">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>11.3964</v>
+      </c>
+      <c r="C64">
+        <v>0.37982302654601807</v>
+      </c>
+      <c r="D64">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>7.6582600000000003</v>
+      </c>
+      <c r="C65">
+        <v>0.2552370477761669</v>
+      </c>
+      <c r="D65">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>4.3636999999999997</v>
+      </c>
+      <c r="C66">
+        <v>0.14543485143895082</v>
+      </c>
+      <c r="D66">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>1.20082</v>
+      </c>
+      <c r="C67">
+        <v>4.002133013381326E-2</v>
+      </c>
+      <c r="D67">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>34.063499999999998</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E68">
+        <f>B68*0.15</f>
+        <v>5.1095249999999997</v>
+      </c>
+      <c r="F68">
+        <f>(D78-D69)/(2*(B68*0.85))</f>
+        <v>7.1838150029486462E-3</v>
+      </c>
+      <c r="G68">
+        <f>2*ATAN(F68)</f>
+        <v>1.4367382855841262E-2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>28.938400000000001</v>
+      </c>
+      <c r="C69">
+        <v>0.84954276571696985</v>
+      </c>
+      <c r="D69">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G69">
+        <f>DEGREES(G68)</f>
+        <v>0.82319040028832002</v>
+      </c>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>24.388300000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.71596576981226245</v>
+      </c>
+      <c r="D70">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="E70">
+        <f>B68*0.85</f>
+        <v>28.953974999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>20.228100000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.59383504337487347</v>
+      </c>
+      <c r="D71">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>16.483899999999998</v>
+      </c>
+      <c r="C72">
+        <v>0.48391680244249707</v>
+      </c>
+      <c r="D72">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>13.0341</v>
+      </c>
+      <c r="C73">
+        <v>0.38264124355982215</v>
+      </c>
+      <c r="D73">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>9.8977299999999993</v>
+      </c>
+      <c r="C74">
+        <v>0.29056702922483008</v>
+      </c>
+      <c r="D74">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>7.1234900000000003</v>
+      </c>
+      <c r="C75">
+        <v>0.20912384223582428</v>
+      </c>
+      <c r="D75">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>4.6558799999999998</v>
+      </c>
+      <c r="C76">
+        <v>0.13668237262759259</v>
+      </c>
+      <c r="D76">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>2.3434400000000002</v>
+      </c>
+      <c r="C77">
+        <v>6.8796218826603264E-2</v>
+      </c>
+      <c r="D77">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>0.36871199999999998</v>
+      </c>
+      <c r="C78">
+        <v>1.0824254700779428E-2</v>
+      </c>
+      <c r="D78">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>35.2468</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E79">
+        <f>B79*0.15</f>
+        <v>5.2870200000000001</v>
+      </c>
+      <c r="F79">
+        <f>(D92-D81)/(2*(B79*0.85))</f>
+        <v>6.7757506897580698E-3</v>
+      </c>
+      <c r="G79">
+        <f>2*ATAN(F79)</f>
+        <v>1.3551293998483916E-2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>33.661700000000003</v>
+      </c>
+      <c r="C80">
+        <v>0.95502854159810258</v>
+      </c>
+      <c r="D80">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G80">
+        <f>DEGREES(G79)</f>
+        <v>0.77643195305409018</v>
+      </c>
+      <c r="H80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>29.313500000000001</v>
+      </c>
+      <c r="C81">
+        <v>0.83166415107187042</v>
+      </c>
+      <c r="D81">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E81">
+        <f>B79*0.85</f>
+        <v>29.959779999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>26.7425</v>
+      </c>
+      <c r="C82">
+        <v>0.75872135910210292</v>
+      </c>
+      <c r="D82">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>25.134</v>
+      </c>
+      <c r="C83">
+        <v>0.71308601064493793</v>
+      </c>
+      <c r="D83">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>22.190999999999999</v>
+      </c>
+      <c r="C84">
+        <v>0.62958906907861134</v>
+      </c>
+      <c r="D84">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>19.582000000000001</v>
+      </c>
+      <c r="C85">
+        <v>0.55556816505328144</v>
+      </c>
+      <c r="D85">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>17.0456</v>
+      </c>
+      <c r="C86">
+        <v>0.48360702248147353</v>
+      </c>
+      <c r="D86">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>15.0345</v>
+      </c>
+      <c r="C87">
+        <v>0.42654936050932279</v>
+      </c>
+      <c r="D87">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>12.586600000000001</v>
+      </c>
+      <c r="C88">
+        <v>0.35709908417218017</v>
+      </c>
+      <c r="D88">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89">
+        <v>10.132199999999999</v>
+      </c>
+      <c r="C89">
+        <v>0.28746439393079654</v>
+      </c>
+      <c r="D89">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>6.9301599999999999</v>
+      </c>
+      <c r="C90">
+        <v>0.19661813270991976</v>
+      </c>
+      <c r="D90">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>3.9987499999999998</v>
+      </c>
+      <c r="C91">
+        <v>0.11345001532053973</v>
+      </c>
+      <c r="D91">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>0.58142799999999994</v>
+      </c>
+      <c r="C92">
+        <v>1.6495908848462838E-2</v>
+      </c>
+      <c r="D92">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>49.204700000000003</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0.318</v>
+      </c>
+      <c r="E93">
+        <f>B93*0.15</f>
+        <v>7.3807049999999998</v>
+      </c>
+      <c r="F93">
+        <f>(D102-D96)/(2*(B93*0.85))</f>
+        <v>5.8698362028782756E-3</v>
+      </c>
+      <c r="G93">
+        <f>2*ATAN(F93)</f>
+        <v>1.1739537578496056E-2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>44.413499999999999</v>
+      </c>
+      <c r="C94">
+        <v>0.90262718805317377</v>
+      </c>
+      <c r="D94">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G94">
+        <f>DEGREES(G93)</f>
+        <v>0.67262595668305436</v>
+      </c>
+      <c r="H94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95">
+        <v>40.430900000000001</v>
+      </c>
+      <c r="C95">
+        <v>0.82168776559962764</v>
+      </c>
+      <c r="D95">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E95">
+        <f>B93*0.85</f>
+        <v>41.823995000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96">
+        <v>36.432000000000002</v>
+      </c>
+      <c r="C96">
+        <v>0.74041707397870526</v>
+      </c>
+      <c r="D96">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>31.658899999999999</v>
+      </c>
+      <c r="C97">
+        <v>0.64341211307049928</v>
+      </c>
+      <c r="D97">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98">
+        <v>26.808299999999999</v>
+      </c>
+      <c r="C98">
+        <v>0.54483209937262089</v>
+      </c>
+      <c r="D98">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99">
+        <v>21.258500000000002</v>
+      </c>
+      <c r="C99">
+        <v>0.43204206102262588</v>
+      </c>
+      <c r="D99">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>15.409599999999999</v>
+      </c>
+      <c r="C100">
+        <v>0.31317333506758499</v>
+      </c>
+      <c r="D100">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
+        <v>8.8789999999999996</v>
+      </c>
+      <c r="C101">
+        <v>0.18045024154196651</v>
+      </c>
+      <c r="D101">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102">
+        <v>1.4555499999999999</v>
+      </c>
+      <c r="C102">
+        <v>2.9581523716230358E-2</v>
+      </c>
+      <c r="D102">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103">
+        <v>116.864</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0.443</v>
+      </c>
+      <c r="E103">
+        <f>B103*0.15</f>
+        <v>17.529599999999999</v>
+      </c>
+      <c r="F103">
+        <f>(D125-D110)/(2*(B103*0.85))</f>
+        <v>1.9781666774048062E-3</v>
+      </c>
+      <c r="G103">
+        <f>2*ATAN(F103)</f>
+        <v>3.9563281942551392E-3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104">
+        <v>107.95699999999999</v>
+      </c>
+      <c r="C104">
+        <v>0.92378320098576117</v>
+      </c>
+      <c r="D104">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G104">
+        <f>DEGREES(G103)</f>
+        <v>0.22668090789943357</v>
+      </c>
+      <c r="H104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>99.560299999999998</v>
+      </c>
+      <c r="C105">
+        <v>0.85193301615553119</v>
+      </c>
+      <c r="D105">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E105">
+        <f>B103*0.85</f>
+        <v>99.334400000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106">
+        <v>91.832899999999995</v>
+      </c>
+      <c r="C106">
+        <v>0.78581000136911272</v>
+      </c>
+      <c r="D106">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>84.706999999999994</v>
+      </c>
+      <c r="C107">
+        <v>0.72483399507119384</v>
+      </c>
+      <c r="D107">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>77.943100000000001</v>
+      </c>
+      <c r="C108">
+        <v>0.66695560651697694</v>
+      </c>
+      <c r="D108">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>71.923400000000001</v>
+      </c>
+      <c r="C109">
+        <v>0.61544530394304486</v>
+      </c>
+      <c r="D109">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110">
+        <v>66.191699999999997</v>
+      </c>
+      <c r="C110">
+        <v>0.56639940443592551</v>
+      </c>
+      <c r="D110">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111">
+        <v>59.182200000000002</v>
+      </c>
+      <c r="C111">
+        <v>0.50641942771084336</v>
+      </c>
+      <c r="D111">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>54.122</v>
+      </c>
+      <c r="C112">
+        <v>0.46311952354874042</v>
+      </c>
+      <c r="D112">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>48.282499999999999</v>
+      </c>
+      <c r="C113">
+        <v>0.41315118428258485</v>
+      </c>
+      <c r="D113">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>43.846899999999998</v>
+      </c>
+      <c r="C114">
+        <v>0.37519595427163194</v>
+      </c>
+      <c r="D114">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>39.997999999999998</v>
+      </c>
+      <c r="C115">
+        <v>0.3422610898138006</v>
+      </c>
+      <c r="D115">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116">
+        <v>34.932200000000002</v>
+      </c>
+      <c r="C116">
+        <v>0.29891326670317636</v>
+      </c>
+      <c r="D116">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117">
+        <v>30.183399999999999</v>
+      </c>
+      <c r="C117">
+        <v>0.25827799835706461</v>
+      </c>
+      <c r="D117">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118">
+        <v>25.085899999999999</v>
+      </c>
+      <c r="C118">
+        <v>0.21465891976998902</v>
+      </c>
+      <c r="D118">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119">
+        <v>20.704000000000001</v>
+      </c>
+      <c r="C119">
+        <v>0.1771631982475356</v>
+      </c>
+      <c r="D119">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120">
+        <v>17.1417</v>
+      </c>
+      <c r="C120">
+        <v>0.14668075711938663</v>
+      </c>
+      <c r="D120">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121">
+        <v>13.5151</v>
+      </c>
+      <c r="C121">
+        <v>0.11564810377875137</v>
+      </c>
+      <c r="D121">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122">
+        <v>10.685499999999999</v>
+      </c>
+      <c r="C122">
+        <v>9.1435343647316536E-2</v>
+      </c>
+      <c r="D122">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123">
+        <v>6.9883499999999996</v>
+      </c>
+      <c r="C123">
+        <v>5.9798997124863085E-2</v>
+      </c>
+      <c r="D123">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124">
+        <v>3.1240999999999999</v>
+      </c>
+      <c r="C124">
+        <v>2.673278340635268E-2</v>
+      </c>
+      <c r="D124">
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125">
+        <v>1.76827</v>
+      </c>
+      <c r="C125">
+        <v>1.5131006982475355E-2</v>
+      </c>
+      <c r="D125">
+        <v>1.0640000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126">
+        <v>37.680599999999998</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E126">
+        <f>B126*0.15</f>
+        <v>5.6520899999999994</v>
+      </c>
+      <c r="F126">
+        <f>(D137-D130)/(2*(B126*0.85))</f>
+        <v>1.0584320032371159E-2</v>
+      </c>
+      <c r="G126">
+        <f>2*ATAN(F126)</f>
+        <v>2.1167849625598315E-2</v>
+      </c>
+      <c r="H126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127">
+        <v>36.460900000000002</v>
+      </c>
+      <c r="C127">
+        <v>0.96763055789982122</v>
+      </c>
+      <c r="D127">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="G127">
+        <f>DEGREES(G126)</f>
+        <v>1.2128284449143634</v>
+      </c>
+      <c r="H127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>34.727899999999998</v>
+      </c>
+      <c r="C128">
+        <v>0.9216387212517847</v>
+      </c>
+      <c r="D128">
+        <v>0.433</v>
+      </c>
+      <c r="E128">
+        <f>B126*0.85</f>
+        <v>32.028509999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129">
+        <v>32.912300000000002</v>
+      </c>
+      <c r="C129">
+        <v>0.87345477513627712</v>
+      </c>
+      <c r="D129">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130">
+        <v>30.678000000000001</v>
+      </c>
+      <c r="C130">
+        <v>0.81415901020684389</v>
+      </c>
+      <c r="D130">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131">
+        <v>28.268899999999999</v>
+      </c>
+      <c r="C131">
+        <v>0.75022425332929943</v>
+      </c>
+      <c r="D131">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132">
+        <v>25.405899999999999</v>
+      </c>
+      <c r="C132">
+        <v>0.67424350992287807</v>
+      </c>
+      <c r="D132">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133">
+        <v>22.3049</v>
+      </c>
+      <c r="C133">
+        <v>0.59194651889831906</v>
+      </c>
+      <c r="D133">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134">
+        <v>18.606300000000001</v>
+      </c>
+      <c r="C134">
+        <v>0.49378990780401588</v>
+      </c>
+      <c r="D134">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135">
+        <v>14.7539</v>
+      </c>
+      <c r="C135">
+        <v>0.39155162072790772</v>
+      </c>
+      <c r="D135">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136">
+        <v>10.198499999999999</v>
+      </c>
+      <c r="C136">
+        <v>0.27065651820830877</v>
+      </c>
+      <c r="D136">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137">
+        <v>5.1935700000000002</v>
+      </c>
+      <c r="C137">
+        <v>0.13783140395853571</v>
+      </c>
+      <c r="D137">
+        <v>1.1439999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138">
+        <v>95.281099999999995</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E138">
+        <f>B138*0.15</f>
+        <v>14.292164999999999</v>
+      </c>
+      <c r="F138">
+        <f>(D153-D141)/(2*(B138*0.85))</f>
+        <v>3.9511570315130086E-3</v>
+      </c>
+      <c r="G138">
+        <f>2*ATAN(F138)</f>
+        <v>7.9022729407121298E-3</v>
+      </c>
+      <c r="H138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139">
+        <v>88.928100000000001</v>
+      </c>
+      <c r="C139">
+        <v>0.93332360772493184</v>
+      </c>
+      <c r="D139">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G139">
+        <f>DEGREES(G138)</f>
+        <v>0.45276688806323884</v>
+      </c>
+      <c r="H139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140">
+        <v>81.075500000000005</v>
+      </c>
+      <c r="C140">
+        <v>0.85090852225677505</v>
+      </c>
+      <c r="D140">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="E140">
+        <f>B138*0.85</f>
+        <v>80.988934999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141">
+        <v>73.283299999999997</v>
+      </c>
+      <c r="C141">
+        <v>0.76912735054486148</v>
+      </c>
+      <c r="D141">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142">
+        <v>66.712999999999994</v>
+      </c>
+      <c r="C142">
+        <v>0.70017033808383822</v>
+      </c>
+      <c r="D142">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143">
+        <v>59.927100000000003</v>
+      </c>
+      <c r="C143">
+        <v>0.62895054738033052</v>
+      </c>
+      <c r="D143">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144">
+        <v>54.716999999999999</v>
+      </c>
+      <c r="C144">
+        <v>0.57426918874782096</v>
+      </c>
+      <c r="D144">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145">
+        <v>48.646299999999997</v>
+      </c>
+      <c r="C145">
+        <v>0.51055560861492988</v>
+      </c>
+      <c r="D145">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146">
+        <v>44.500900000000001</v>
+      </c>
+      <c r="C146">
+        <v>0.46704855422533958</v>
+      </c>
+      <c r="D146">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147">
+        <v>34.6599</v>
+      </c>
+      <c r="C147">
+        <v>0.36376469205330336</v>
+      </c>
+      <c r="D147">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148">
+        <v>29.822299999999998</v>
+      </c>
+      <c r="C148">
+        <v>0.31299281809299012</v>
+      </c>
+      <c r="D148">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149">
+        <v>25.369199999999999</v>
+      </c>
+      <c r="C149">
+        <v>0.26625637193525264</v>
+      </c>
+      <c r="D149">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150">
+        <v>17.508199999999999</v>
+      </c>
+      <c r="C150">
+        <v>0.18375312627583015</v>
+      </c>
+      <c r="D150">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151">
+        <v>10.187200000000001</v>
+      </c>
+      <c r="C151">
+        <v>0.10691732148348415</v>
+      </c>
+      <c r="D151">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152">
+        <v>5.5927199999999999</v>
+      </c>
+      <c r="C152">
+        <v>5.8697055344659119E-2</v>
+      </c>
+      <c r="D152">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153">
+        <v>3.7010399999999999</v>
+      </c>
+      <c r="C153">
+        <v>3.8843380271638341E-2</v>
+      </c>
+      <c r="D153">
+        <v>1.3120000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154">
+        <v>23.3</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E154">
+        <f>B154*0.15</f>
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="F154">
+        <f>(D162-D157)/(2*(B154*0.85))</f>
+        <v>5.2511991921232E-3</v>
+      </c>
+      <c r="G154">
+        <f>2*ATAN(F154)</f>
+        <v>1.0502301850972976E-2</v>
+      </c>
+      <c r="H154" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155">
+        <v>22.288</v>
+      </c>
+      <c r="C155">
+        <v>0.95656652360515015</v>
+      </c>
+      <c r="D155">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G155">
+        <f>DEGREES(G154)</f>
+        <v>0.60173757123318405</v>
+      </c>
+      <c r="H155" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156">
+        <v>20.876100000000001</v>
+      </c>
+      <c r="C156">
+        <v>0.89596995708154503</v>
+      </c>
+      <c r="D156">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E156">
+        <f>B154*0.85</f>
+        <v>19.805</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157">
+        <v>19.222799999999999</v>
+      </c>
+      <c r="C157">
+        <v>0.82501287553648062</v>
+      </c>
+      <c r="D157">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158">
+        <v>17.115400000000001</v>
+      </c>
+      <c r="C158">
+        <v>0.73456652360515029</v>
+      </c>
+      <c r="D158">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159">
+        <v>14.7424</v>
+      </c>
+      <c r="C159">
+        <v>0.63272103004291846</v>
+      </c>
+      <c r="D159">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160">
+        <v>11.8248</v>
+      </c>
+      <c r="C160">
+        <v>0.50750214592274678</v>
+      </c>
+      <c r="D160">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161">
+        <v>8.6191099999999992</v>
+      </c>
+      <c r="C161">
+        <v>0.36991888412017165</v>
+      </c>
+      <c r="D161">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162">
+        <v>4.7934400000000004</v>
+      </c>
+      <c r="C162">
+        <v>0.20572703862660946</v>
+      </c>
+      <c r="D162">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>